--- a/Assets/BaseCalculos.xlsx
+++ b/Assets/BaseCalculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jogos Unity\StoneJungleCityV2\StoneJungleCity\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4ED5E2-4F53-45F3-A809-B211AED04634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5676D4E6-0173-4F6B-8569-050E0F92EA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24285" yWindow="630" windowWidth="18885" windowHeight="12585" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo Level por XP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Level</t>
   </si>
@@ -147,6 +147,33 @@
   </si>
   <si>
     <t>Praça Simples</t>
+  </si>
+  <si>
+    <t>Hotel LakeLux</t>
+  </si>
+  <si>
+    <t>Casa Fazenda 2</t>
+  </si>
+  <si>
+    <t>Casa Mountain 2</t>
+  </si>
+  <si>
+    <t>Casa do Lago 2</t>
+  </si>
+  <si>
+    <t>Casa Luxo 2</t>
+  </si>
+  <si>
+    <t>Casa de Luxo do Lago</t>
+  </si>
+  <si>
+    <t>Sorveteria</t>
+  </si>
+  <si>
+    <t>Comercial Padrão</t>
+  </si>
+  <si>
+    <t>Bolsa de Valores</t>
   </si>
 </sst>
 </file>
@@ -156,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +217,15 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,97 +297,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -681,368 +723,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>B2*1.2</f>
         <v>72</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B21" si="0">B3*1.2</f>
         <v>86.399999999999991</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>103.67999999999999</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>124.41599999999998</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>149.29919999999998</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>179.15903999999998</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>214.99084799999997</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>257.98901759999995</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>309.58682111999991</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>371.50418534399989</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>445.80502241279987</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>534.96602689535985</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>641.95923227443177</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>770.35107872931815</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>924.42129447518175</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>1109.3055533702181</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>1331.1666640442618</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>1597.3999968531141</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>1916.8799962237367</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <f>B21*1.3</f>
         <v>2491.9439950908577</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" ref="B4:B36" si="1">B22*1.5</f>
+        <f t="shared" ref="B23:B36" si="1">B22*1.5</f>
         <v>3737.9159926362863</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="28"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="1"/>
         <v>5606.8739889544295</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="1"/>
         <v>8410.3109834316438</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="28"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="1"/>
         <v>12615.466475147467</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="28"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="1"/>
         <v>18923.199712721202</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="1"/>
         <v>28384.799569081802</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="28"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="1"/>
         <v>42577.199353622702</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="1"/>
         <v>63865.799030434049</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="1"/>
         <v>95798.698545651074</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="28"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="1"/>
         <v>143698.04781847663</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="28"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="1"/>
         <v>215547.07172771494</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="28"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" si="1"/>
         <v>323320.60759157239</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="28"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" si="1"/>
         <v>484980.91138735856</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="28"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" si="1"/>
         <v>727471.36708103784</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1089,963 +1131,988 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A59586-0C0B-4140-93D4-3BF2EBFC0FC3}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="H1" s="12" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="H1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="O1" s="19" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="O1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="V1" s="26" t="s">
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="V1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="Z2" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>10</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>3</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="11">
         <v>0</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="13">
         <v>0</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="14">
         <v>2</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="13">
         <v>3</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="17">
         <v>61</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="19">
         <v>180</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="20">
         <v>15</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="19">
         <v>1</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="23">
         <v>91</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="30">
+      <c r="X3" s="25">
         <v>230</v>
       </c>
-      <c r="Y3" s="31">
+      <c r="Y3" s="26">
         <v>0</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <f>C3*2</f>
         <v>20</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <f>D3+(D3*15%)</f>
         <v>5.75</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="11">
         <v>31</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="13">
         <v>300</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <v>80</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="13">
         <v>12</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="17">
         <v>62</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="19">
         <v>360</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="20">
         <v>60</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="19">
         <v>2</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="23">
         <v>92</v>
       </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="30"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="25"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <f t="shared" ref="C5:C20" si="0">C4*2</f>
         <v>40</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <f t="shared" ref="D5:D20" si="1">D4+(D4*15%)</f>
         <v>6.6124999999999998</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="11">
         <v>32</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="14">
         <f>J4+(J4*60%)</f>
         <v>480</v>
       </c>
-      <c r="K5" s="17">
-        <f t="shared" ref="K5:K20" si="2">K4+(K4*15%)</f>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K12" si="2">K4+(K4*15%)</f>
         <v>92</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="13">
         <v>10</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="17">
         <v>63</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="20">
         <v>580</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="20">
         <v>70</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="19">
         <v>1</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="23">
         <v>93</v>
       </c>
-      <c r="W5" s="29"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="30"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="25"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f t="shared" si="1"/>
         <v>7.6043750000000001</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>33</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="14">
         <v>560</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="14">
         <f t="shared" si="2"/>
         <v>105.8</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="13">
         <v>12</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="17">
         <v>64</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="20">
         <v>560</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="20">
         <v>90</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="19">
         <v>2</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="23">
         <v>94</v>
       </c>
-      <c r="W6" s="29"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="30"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="25"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>15</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>5</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="11">
         <v>34</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="14">
         <v>500</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="14">
         <v>180</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="13">
         <v>12</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="17">
         <v>65</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="20">
         <v>1200</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="20">
         <v>160</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="19">
         <v>3</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="23">
         <v>95</v>
       </c>
-      <c r="W7" s="29"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="30"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="25"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>30</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>10</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="11">
         <v>35</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <v>1200</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="14">
         <v>240</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="13">
         <v>16</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="17">
         <v>66</v>
       </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="23"/>
-      <c r="V8" s="28">
+      <c r="P8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>1800</v>
+      </c>
+      <c r="R8" s="20">
+        <v>280</v>
+      </c>
+      <c r="S8" s="19">
+        <v>5</v>
+      </c>
+      <c r="V8" s="23">
         <v>96</v>
       </c>
-      <c r="W8" s="29"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="30"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="25"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10">
-        <f t="shared" si="0"/>
-        <v>640</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" si="1"/>
-        <v>34.5</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="33">
+        <v>3</v>
+      </c>
+      <c r="H9" s="11">
         <v>36</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="14">
         <v>1500</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="14">
         <f t="shared" si="2"/>
         <v>276</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <v>8</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="17">
         <v>67</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="25"/>
-      <c r="V9" s="28">
+      <c r="P9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>360</v>
+      </c>
+      <c r="R9" s="20">
+        <v>60</v>
+      </c>
+      <c r="S9" s="21">
+        <v>2</v>
+      </c>
+      <c r="V9" s="23">
         <v>97</v>
       </c>
-      <c r="W9" s="28"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="32"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10">
-        <f t="shared" si="0"/>
-        <v>1280</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8">
+        <v>80</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="1"/>
-        <v>39.674999999999997</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="14">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="E10" s="33">
+        <v>3</v>
+      </c>
+      <c r="H10" s="11">
         <v>37</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="17">
-        <f t="shared" ref="J6:J20" si="3">J9+(J9*60%)</f>
+      <c r="J10" s="14">
+        <f t="shared" ref="J10" si="3">J9+(J9*60%)</f>
         <v>2400</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="14">
         <f t="shared" si="2"/>
         <v>317.39999999999998</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <v>14</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="17">
         <v>68</v>
       </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
-      <c r="V10" s="28">
+      <c r="P10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>2800</v>
+      </c>
+      <c r="R10" s="34">
+        <v>520</v>
+      </c>
+      <c r="S10" s="21">
+        <v>10</v>
+      </c>
+      <c r="V10" s="23">
         <v>98</v>
       </c>
-      <c r="W10" s="28"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="32"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="27"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10">
-        <f t="shared" si="0"/>
-        <v>2560</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="1"/>
-        <v>45.626249999999999</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="8">
+        <v>160</v>
+      </c>
+      <c r="D11" s="9">
+        <v>15</v>
+      </c>
+      <c r="E11" s="33">
+        <v>5</v>
+      </c>
+      <c r="H11" s="11">
         <v>38</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="14">
         <v>800</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="14">
         <f t="shared" si="2"/>
         <v>365.01</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15">
         <v>12</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="17">
         <v>69</v>
       </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="25"/>
-      <c r="V11" s="28">
+      <c r="P11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>4500</v>
+      </c>
+      <c r="R11" s="20">
+        <v>800</v>
+      </c>
+      <c r="S11" s="21">
+        <v>15</v>
+      </c>
+      <c r="V11" s="23">
         <v>99</v>
       </c>
-      <c r="W11" s="28"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="32"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="27"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="10">
-        <f t="shared" si="0"/>
-        <v>5120</v>
-      </c>
-      <c r="D12" s="11">
-        <f t="shared" si="1"/>
-        <v>52.470187500000002</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="14">
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="D12" s="9">
+        <v>30</v>
+      </c>
+      <c r="E12" s="33">
+        <v>10</v>
+      </c>
+      <c r="H12" s="11">
         <v>39</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <v>1000</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="14">
         <f t="shared" si="2"/>
         <v>419.76150000000001</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
         <v>14</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="17">
         <v>70</v>
       </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="25"/>
-      <c r="V12" s="28">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21"/>
+      <c r="V12" s="23">
         <v>100</v>
       </c>
-      <c r="W12" s="28"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="32"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="27"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="D13" s="9">
+        <v>125</v>
+      </c>
+      <c r="E13" s="33">
+        <v>6</v>
+      </c>
+      <c r="H13" s="11">
+        <v>40</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="O13" s="17">
+        <v>71</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="21"/>
+      <c r="V13" s="23">
+        <v>101</v>
+      </c>
+      <c r="W13" s="23"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C14" s="8">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="1"/>
+        <v>143.75</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="11">
+        <v>41</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="O14" s="17">
+        <v>72</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="21"/>
+      <c r="V14" s="23">
+        <v>102</v>
+      </c>
+      <c r="W14" s="23"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="1"/>
+        <v>165.3125</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="11">
+        <v>42</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="O15" s="17">
+        <v>73</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="21"/>
+      <c r="V15" s="23">
+        <v>103</v>
+      </c>
+      <c r="W15" s="23"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
+        <v>5120</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="1"/>
+        <v>190.109375</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="11">
+        <v>43</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="O16" s="17">
+        <v>74</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="21"/>
+      <c r="V16" s="23">
+        <v>104</v>
+      </c>
+      <c r="W16" s="23"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
         <f t="shared" si="0"/>
         <v>10240</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D17" s="9">
         <f t="shared" si="1"/>
-        <v>60.340715625000001</v>
-      </c>
-      <c r="E13" s="8" t="s">
+        <v>218.62578124999999</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="14">
-        <v>40</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-      <c r="O13" s="21">
-        <v>71</v>
-      </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
-      <c r="V13" s="28">
-        <v>101</v>
-      </c>
-      <c r="W13" s="28"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="32"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="H17" s="11">
+        <v>44</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="O17" s="17">
+        <v>75</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="V17" s="23">
+        <v>105</v>
+      </c>
+      <c r="W17" s="23"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="C14" s="10">
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8">
         <f t="shared" si="0"/>
         <v>20480</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D18" s="9">
         <f t="shared" si="1"/>
-        <v>69.391822968750006</v>
-      </c>
-      <c r="E14" s="8" t="s">
+        <v>251.41964843749997</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="14">
-        <v>41</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
-      <c r="O14" s="21">
-        <v>72</v>
-      </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="25"/>
-      <c r="V14" s="28">
-        <v>102</v>
-      </c>
-      <c r="W14" s="28"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="32"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="H18" s="11">
+        <v>45</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="O18" s="17">
+        <v>76</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="21"/>
+      <c r="V18" s="23">
+        <v>106</v>
+      </c>
+      <c r="W18" s="23"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C19" s="8">
         <f t="shared" si="0"/>
         <v>40960</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D19" s="9">
         <f t="shared" si="1"/>
-        <v>79.800596414062511</v>
-      </c>
-      <c r="E15" s="8" t="s">
+        <v>289.13259570312499</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="14">
-        <v>42</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
-      <c r="O15" s="21">
-        <v>73</v>
-      </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
-      <c r="V15" s="28">
-        <v>103</v>
-      </c>
-      <c r="W15" s="28"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="32"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="H19" s="11">
+        <v>46</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="O19" s="17">
+        <v>77</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="21"/>
+      <c r="V19" s="23">
+        <v>107</v>
+      </c>
+      <c r="W19" s="23"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>81920</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D20" s="9">
         <f t="shared" si="1"/>
-        <v>91.770685876171882</v>
-      </c>
-      <c r="E16" s="8" t="s">
+        <v>332.50248505859372</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="14">
-        <v>43</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="O16" s="21">
-        <v>74</v>
-      </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="25"/>
-      <c r="V16" s="28">
-        <v>104</v>
-      </c>
-      <c r="W16" s="28"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="32"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="10">
-        <f t="shared" si="0"/>
-        <v>163840</v>
-      </c>
-      <c r="D17" s="11">
-        <f t="shared" si="1"/>
-        <v>105.53628875759766</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="14">
-        <v>44</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="O17" s="21">
-        <v>75</v>
-      </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
-      <c r="V17" s="28">
-        <v>105</v>
-      </c>
-      <c r="W17" s="28"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="32"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="10">
-        <f t="shared" si="0"/>
-        <v>327680</v>
-      </c>
-      <c r="D18" s="11">
-        <f t="shared" si="1"/>
-        <v>121.36673207123731</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="14">
-        <v>45</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-      <c r="O18" s="21">
-        <v>76</v>
-      </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
-      <c r="V18" s="28">
-        <v>106</v>
-      </c>
-      <c r="W18" s="28"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="32"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="10">
-        <f t="shared" si="0"/>
-        <v>655360</v>
-      </c>
-      <c r="D19" s="11">
-        <f t="shared" si="1"/>
-        <v>139.57174188192289</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="14">
-        <v>46</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
-      <c r="O19" s="21">
-        <v>77</v>
-      </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="25"/>
-      <c r="V19" s="28">
-        <v>107</v>
-      </c>
-      <c r="W19" s="28"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="32"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="10">
-        <f t="shared" si="0"/>
-        <v>1310720</v>
-      </c>
-      <c r="D20" s="11">
-        <f t="shared" si="1"/>
-        <v>160.50750316421133</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="14">
+      <c r="H20" s="11">
         <v>47</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
-      <c r="O20" s="21">
+      <c r="I20" s="11"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="O20" s="17">
         <v>78</v>
       </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="25"/>
-      <c r="V20" s="28">
+      <c r="P20" s="17"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="21"/>
+      <c r="V20" s="23">
         <v>108</v>
       </c>
-      <c r="W20" s="28"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="32"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2055,5 +2122,6 @@
     <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/BaseCalculos.xlsx
+++ b/Assets/BaseCalculos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jogos Unity\StoneJungleCityV2\StoneJungleCity\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5676D4E6-0173-4F6B-8569-050E0F92EA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C370724-668C-4727-86FD-F98A42806334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
+    <workbookView xWindow="2535" yWindow="0" windowWidth="18885" windowHeight="12585" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo Level por XP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Level</t>
   </si>
@@ -174,6 +174,33 @@
   </si>
   <si>
     <t>Bolsa de Valores</t>
+  </si>
+  <si>
+    <t>Posto de Gasolina</t>
+  </si>
+  <si>
+    <t>Comercial Trade</t>
+  </si>
+  <si>
+    <t>Contabil</t>
+  </si>
+  <si>
+    <t>BoateLux</t>
+  </si>
+  <si>
+    <t>Comercial Stone</t>
+  </si>
+  <si>
+    <t>Emissora</t>
+  </si>
+  <si>
+    <t>Hotel Stone</t>
+  </si>
+  <si>
+    <t>Comercial Cosmético</t>
+  </si>
+  <si>
+    <t>Estúdio Indie</t>
   </si>
 </sst>
 </file>
@@ -297,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -374,6 +401,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -388,12 +424,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,7 +770,7 @@
       <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
     </row>
@@ -752,7 +782,7 @@
         <f>B2*1.2</f>
         <v>72</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -762,7 +792,7 @@
         <f t="shared" ref="B4:B21" si="0">B3*1.2</f>
         <v>86.399999999999991</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -772,7 +802,7 @@
         <f t="shared" si="0"/>
         <v>103.67999999999999</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -782,7 +812,7 @@
         <f t="shared" si="0"/>
         <v>124.41599999999998</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -792,7 +822,7 @@
         <f t="shared" si="0"/>
         <v>149.29919999999998</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="31"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -802,7 +832,7 @@
         <f t="shared" si="0"/>
         <v>179.15903999999998</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -812,7 +842,7 @@
         <f t="shared" si="0"/>
         <v>214.99084799999997</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -822,7 +852,7 @@
         <f t="shared" si="0"/>
         <v>257.98901759999995</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -832,7 +862,7 @@
         <f t="shared" si="0"/>
         <v>309.58682111999991</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="31"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -842,7 +872,7 @@
         <f t="shared" si="0"/>
         <v>371.50418534399989</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -852,7 +882,7 @@
         <f t="shared" si="0"/>
         <v>445.80502241279987</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -862,7 +892,7 @@
         <f t="shared" si="0"/>
         <v>534.96602689535985</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -872,7 +902,7 @@
         <f t="shared" si="0"/>
         <v>641.95923227443177</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -882,7 +912,7 @@
         <f t="shared" si="0"/>
         <v>770.35107872931815</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="31"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -892,7 +922,7 @@
         <f t="shared" si="0"/>
         <v>924.42129447518175</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -902,7 +932,7 @@
         <f t="shared" si="0"/>
         <v>1109.3055533702181</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="31"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -912,7 +942,7 @@
         <f t="shared" si="0"/>
         <v>1331.1666640442618</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -922,7 +952,7 @@
         <f t="shared" si="0"/>
         <v>1597.3999968531141</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -932,7 +962,7 @@
         <f t="shared" si="0"/>
         <v>1916.8799962237367</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -942,7 +972,7 @@
         <f>B21*1.3</f>
         <v>2491.9439950908577</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="31" t="s">
         <v>3</v>
       </c>
     </row>
@@ -954,7 +984,7 @@
         <f t="shared" ref="B23:B36" si="1">B22*1.5</f>
         <v>3737.9159926362863</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -964,7 +994,7 @@
         <f t="shared" si="1"/>
         <v>5606.8739889544295</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -974,7 +1004,7 @@
         <f t="shared" si="1"/>
         <v>8410.3109834316438</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -984,7 +1014,7 @@
         <f t="shared" si="1"/>
         <v>12615.466475147467</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -994,7 +1024,7 @@
         <f t="shared" si="1"/>
         <v>18923.199712721202</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="31"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1004,7 +1034,7 @@
         <f t="shared" si="1"/>
         <v>28384.799569081802</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="31"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1014,7 +1044,7 @@
         <f t="shared" si="1"/>
         <v>42577.199353622702</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1024,7 +1054,7 @@
         <f t="shared" si="1"/>
         <v>63865.799030434049</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="31"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1034,7 +1064,7 @@
         <f t="shared" si="1"/>
         <v>95798.698545651074</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="31"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1044,7 +1074,7 @@
         <f t="shared" si="1"/>
         <v>143698.04781847663</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1054,7 +1084,7 @@
         <f t="shared" si="1"/>
         <v>215547.07172771494</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="31"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1064,7 +1094,7 @@
         <f t="shared" si="1"/>
         <v>323320.60759157239</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="31"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1074,7 +1104,7 @@
         <f t="shared" si="1"/>
         <v>484980.91138735856</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1084,7 +1114,7 @@
         <f t="shared" si="1"/>
         <v>727471.36708103784</v>
       </c>
-      <c r="C36" s="28"/>
+      <c r="C36" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1131,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A59586-0C0B-4140-93D4-3BF2EBFC0FC3}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,39 +1171,39 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="O1" s="31" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="O1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="V1" s="32" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="V1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1593,7 +1623,7 @@
       <c r="D9" s="9">
         <v>7</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="28">
         <v>3</v>
       </c>
       <c r="H9" s="11">
@@ -1649,7 +1679,7 @@
         <f t="shared" si="1"/>
         <v>8.0500000000000007</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="28">
         <v>3</v>
       </c>
       <c r="H10" s="11">
@@ -1678,7 +1708,7 @@
       <c r="Q10" s="20">
         <v>2800</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="29">
         <v>520</v>
       </c>
       <c r="S10" s="21">
@@ -1705,7 +1735,7 @@
       <c r="D11" s="9">
         <v>15</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="28">
         <v>5</v>
       </c>
       <c r="H11" s="11">
@@ -1761,7 +1791,7 @@
       <c r="D12" s="9">
         <v>30</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="28">
         <v>10</v>
       </c>
       <c r="H12" s="11">
@@ -1783,10 +1813,18 @@
       <c r="O12" s="17">
         <v>70</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21"/>
+      <c r="P12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>10500</v>
+      </c>
+      <c r="R12" s="20">
+        <v>1800</v>
+      </c>
+      <c r="S12" s="21">
+        <v>18</v>
+      </c>
       <c r="V12" s="23">
         <v>100</v>
       </c>
@@ -1809,7 +1847,7 @@
       <c r="D13" s="9">
         <v>125</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="28">
         <v>6</v>
       </c>
       <c r="H13" s="11">
@@ -1822,10 +1860,18 @@
       <c r="O13" s="17">
         <v>71</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="21"/>
+      <c r="P13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>8600</v>
+      </c>
+      <c r="R13" s="20">
+        <v>780</v>
+      </c>
+      <c r="S13" s="21">
+        <v>10</v>
+      </c>
       <c r="V13" s="23">
         <v>101</v>
       </c>
@@ -1849,7 +1895,7 @@
         <f t="shared" si="1"/>
         <v>143.75</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="28" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="11">
@@ -1862,10 +1908,18 @@
       <c r="O14" s="17">
         <v>72</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21"/>
+      <c r="P14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>4600</v>
+      </c>
+      <c r="R14" s="20">
+        <v>520</v>
+      </c>
+      <c r="S14" s="21">
+        <v>8</v>
+      </c>
       <c r="V14" s="23">
         <v>102</v>
       </c>
@@ -1889,7 +1943,7 @@
         <f t="shared" si="1"/>
         <v>165.3125</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="28" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="11">
@@ -1902,10 +1956,18 @@
       <c r="O15" s="17">
         <v>73</v>
       </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21"/>
+      <c r="P15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>16500</v>
+      </c>
+      <c r="R15" s="20">
+        <v>1920</v>
+      </c>
+      <c r="S15" s="21">
+        <v>14</v>
+      </c>
       <c r="V15" s="23">
         <v>103</v>
       </c>
@@ -1929,7 +1991,7 @@
         <f t="shared" si="1"/>
         <v>190.109375</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="28" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="11">
@@ -1942,10 +2004,18 @@
       <c r="O16" s="17">
         <v>74</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21"/>
+      <c r="P16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>9600</v>
+      </c>
+      <c r="R16" s="20">
+        <v>1110</v>
+      </c>
+      <c r="S16" s="21">
+        <v>14</v>
+      </c>
       <c r="V16" s="23">
         <v>104</v>
       </c>
@@ -1969,7 +2039,7 @@
         <f t="shared" si="1"/>
         <v>218.62578124999999</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="28" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="11">
@@ -1982,10 +2052,18 @@
       <c r="O17" s="17">
         <v>75</v>
       </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
+      <c r="P17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="20">
+        <v>16800</v>
+      </c>
+      <c r="R17" s="20">
+        <v>2100</v>
+      </c>
+      <c r="S17" s="21">
+        <v>18</v>
+      </c>
       <c r="V17" s="23">
         <v>105</v>
       </c>
@@ -2009,7 +2087,7 @@
         <f t="shared" si="1"/>
         <v>251.41964843749997</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="28" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="11">
@@ -2022,10 +2100,18 @@
       <c r="O18" s="17">
         <v>76</v>
       </c>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="21"/>
+      <c r="P18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>12500</v>
+      </c>
+      <c r="R18" s="20">
+        <v>1280</v>
+      </c>
+      <c r="S18" s="30">
+        <v>16</v>
+      </c>
       <c r="V18" s="23">
         <v>106</v>
       </c>
@@ -2049,7 +2135,7 @@
         <f t="shared" si="1"/>
         <v>289.13259570312499</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="28" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="11">
@@ -2062,10 +2148,18 @@
       <c r="O19" s="17">
         <v>77</v>
       </c>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="21"/>
+      <c r="P19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>9400</v>
+      </c>
+      <c r="R19" s="20">
+        <v>980</v>
+      </c>
+      <c r="S19" s="21">
+        <v>10</v>
+      </c>
       <c r="V19" s="23">
         <v>107</v>
       </c>
@@ -2089,7 +2183,7 @@
         <f t="shared" si="1"/>
         <v>332.50248505859372</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="28" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="11">
@@ -2102,10 +2196,18 @@
       <c r="O20" s="17">
         <v>78</v>
       </c>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="21"/>
+      <c r="P20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>16000</v>
+      </c>
+      <c r="R20" s="20">
+        <v>3500</v>
+      </c>
+      <c r="S20" s="21">
+        <v>16</v>
+      </c>
       <c r="V20" s="23">
         <v>108</v>
       </c>

--- a/Assets/BaseCalculos.xlsx
+++ b/Assets/BaseCalculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jogos Unity\StoneJungleCityV2\StoneJungleCity\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C370724-668C-4727-86FD-F98A42806334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1027924-3B33-44BB-B3B6-F1E58FCC81BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="0" windowWidth="18885" windowHeight="12585" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
+    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo Level por XP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>Level</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>Estúdio Indie</t>
+  </si>
+  <si>
+    <t>Comum</t>
+  </si>
+  <si>
+    <t>Raro</t>
+  </si>
+  <si>
+    <t>Epico</t>
+  </si>
+  <si>
+    <t>Lendário</t>
   </si>
 </sst>
 </file>
@@ -404,9 +416,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -425,6 +434,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,7 +780,7 @@
       <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
     </row>
@@ -782,7 +792,7 @@
         <f>B2*1.2</f>
         <v>72</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -792,7 +802,7 @@
         <f t="shared" ref="B4:B21" si="0">B3*1.2</f>
         <v>86.399999999999991</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="30"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -802,7 +812,7 @@
         <f t="shared" si="0"/>
         <v>103.67999999999999</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -812,7 +822,7 @@
         <f t="shared" si="0"/>
         <v>124.41599999999998</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -822,7 +832,7 @@
         <f t="shared" si="0"/>
         <v>149.29919999999998</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -832,7 +842,7 @@
         <f t="shared" si="0"/>
         <v>179.15903999999998</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="30"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -842,7 +852,7 @@
         <f t="shared" si="0"/>
         <v>214.99084799999997</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="30"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -852,7 +862,7 @@
         <f t="shared" si="0"/>
         <v>257.98901759999995</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -862,7 +872,7 @@
         <f t="shared" si="0"/>
         <v>309.58682111999991</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -872,7 +882,7 @@
         <f t="shared" si="0"/>
         <v>371.50418534399989</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -882,7 +892,7 @@
         <f t="shared" si="0"/>
         <v>445.80502241279987</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -892,7 +902,7 @@
         <f t="shared" si="0"/>
         <v>534.96602689535985</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -902,7 +912,7 @@
         <f t="shared" si="0"/>
         <v>641.95923227443177</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -912,7 +922,7 @@
         <f t="shared" si="0"/>
         <v>770.35107872931815</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -922,7 +932,7 @@
         <f t="shared" si="0"/>
         <v>924.42129447518175</v>
       </c>
-      <c r="C17" s="31"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -932,7 +942,7 @@
         <f t="shared" si="0"/>
         <v>1109.3055533702181</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -942,7 +952,7 @@
         <f t="shared" si="0"/>
         <v>1331.1666640442618</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="30"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -952,7 +962,7 @@
         <f t="shared" si="0"/>
         <v>1597.3999968531141</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -962,7 +972,7 @@
         <f t="shared" si="0"/>
         <v>1916.8799962237367</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="30"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -972,7 +982,7 @@
         <f>B21*1.3</f>
         <v>2491.9439950908577</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>3</v>
       </c>
     </row>
@@ -984,7 +994,7 @@
         <f t="shared" ref="B23:B36" si="1">B22*1.5</f>
         <v>3737.9159926362863</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="30"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -994,7 +1004,7 @@
         <f t="shared" si="1"/>
         <v>5606.8739889544295</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1004,7 +1014,7 @@
         <f t="shared" si="1"/>
         <v>8410.3109834316438</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1014,7 +1024,7 @@
         <f t="shared" si="1"/>
         <v>12615.466475147467</v>
       </c>
-      <c r="C26" s="31"/>
+      <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1024,7 +1034,7 @@
         <f t="shared" si="1"/>
         <v>18923.199712721202</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="30"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1034,7 +1044,7 @@
         <f t="shared" si="1"/>
         <v>28384.799569081802</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1044,7 +1054,7 @@
         <f t="shared" si="1"/>
         <v>42577.199353622702</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1054,7 +1064,7 @@
         <f t="shared" si="1"/>
         <v>63865.799030434049</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="30"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1064,7 +1074,7 @@
         <f t="shared" si="1"/>
         <v>95798.698545651074</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="30"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1074,7 +1084,7 @@
         <f t="shared" si="1"/>
         <v>143698.04781847663</v>
       </c>
-      <c r="C32" s="31"/>
+      <c r="C32" s="30"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1084,7 +1094,7 @@
         <f t="shared" si="1"/>
         <v>215547.07172771494</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="30"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1094,7 +1104,7 @@
         <f t="shared" si="1"/>
         <v>323320.60759157239</v>
       </c>
-      <c r="C34" s="31"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1104,7 +1114,7 @@
         <f t="shared" si="1"/>
         <v>484980.91138735856</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1114,7 +1124,7 @@
         <f t="shared" si="1"/>
         <v>727471.36708103784</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1161,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A59586-0C0B-4140-93D4-3BF2EBFC0FC3}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,34 +1186,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="H1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="O1" s="34" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="O1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="V1" s="35" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="V1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1298,6 +1308,9 @@
       <c r="L3" s="13">
         <v>3</v>
       </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
       <c r="O3" s="17">
         <v>61</v>
       </c>
@@ -1312,6 +1325,9 @@
       </c>
       <c r="S3" s="19">
         <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
       </c>
       <c r="V3" s="23">
         <v>91</v>
@@ -1362,6 +1378,9 @@
       <c r="L4" s="13">
         <v>12</v>
       </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
       <c r="O4" s="17">
         <v>62</v>
       </c>
@@ -1376,6 +1395,9 @@
       </c>
       <c r="S4" s="19">
         <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>55</v>
       </c>
       <c r="V4" s="23">
         <v>92</v>
@@ -1420,6 +1442,9 @@
       <c r="L5" s="13">
         <v>10</v>
       </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
       <c r="O5" s="17">
         <v>63</v>
       </c>
@@ -1434,6 +1459,9 @@
       </c>
       <c r="S5" s="19">
         <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
       </c>
       <c r="V5" s="23">
         <v>93</v>
@@ -1477,6 +1505,9 @@
       <c r="L6" s="13">
         <v>12</v>
       </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
       <c r="O6" s="17">
         <v>64</v>
       </c>
@@ -1491,6 +1522,9 @@
       </c>
       <c r="S6" s="19">
         <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>55</v>
       </c>
       <c r="V6" s="23">
         <v>94</v>
@@ -1532,6 +1566,9 @@
       <c r="L7" s="13">
         <v>12</v>
       </c>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
       <c r="O7" s="17">
         <v>65</v>
       </c>
@@ -1546,6 +1583,9 @@
       </c>
       <c r="S7" s="19">
         <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>55</v>
       </c>
       <c r="V7" s="23">
         <v>95</v>
@@ -1587,6 +1627,9 @@
       <c r="L8" s="13">
         <v>16</v>
       </c>
+      <c r="M8" t="s">
+        <v>56</v>
+      </c>
       <c r="O8" s="17">
         <v>66</v>
       </c>
@@ -1601,6 +1644,9 @@
       </c>
       <c r="S8" s="19">
         <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>56</v>
       </c>
       <c r="V8" s="23">
         <v>96</v>
@@ -1642,6 +1688,9 @@
       <c r="L9" s="15">
         <v>8</v>
       </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
       <c r="O9" s="17">
         <v>67</v>
       </c>
@@ -1656,6 +1705,9 @@
       </c>
       <c r="S9" s="21">
         <v>2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>55</v>
       </c>
       <c r="V9" s="23">
         <v>97</v>
@@ -1699,6 +1751,9 @@
       <c r="L10" s="15">
         <v>14</v>
       </c>
+      <c r="M10" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="O10" s="17">
         <v>68</v>
       </c>
@@ -1708,11 +1763,14 @@
       <c r="Q10" s="20">
         <v>2800</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="20">
         <v>520</v>
       </c>
       <c r="S10" s="21">
         <v>10</v>
+      </c>
+      <c r="T10" t="s">
+        <v>55</v>
       </c>
       <c r="V10" s="23">
         <v>98</v>
@@ -1754,6 +1812,9 @@
       <c r="L11" s="15">
         <v>12</v>
       </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
       <c r="O11" s="17">
         <v>69</v>
       </c>
@@ -1768,6 +1829,9 @@
       </c>
       <c r="S11" s="21">
         <v>15</v>
+      </c>
+      <c r="T11" t="s">
+        <v>56</v>
       </c>
       <c r="V11" s="23">
         <v>99</v>
@@ -1810,6 +1874,9 @@
       <c r="L12" s="15">
         <v>14</v>
       </c>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
       <c r="O12" s="17">
         <v>70</v>
       </c>
@@ -1824,6 +1891,9 @@
       </c>
       <c r="S12" s="21">
         <v>18</v>
+      </c>
+      <c r="T12" t="s">
+        <v>55</v>
       </c>
       <c r="V12" s="23">
         <v>100</v>
@@ -1872,6 +1942,9 @@
       <c r="S13" s="21">
         <v>10</v>
       </c>
+      <c r="T13" t="s">
+        <v>57</v>
+      </c>
       <c r="V13" s="23">
         <v>101</v>
       </c>
@@ -1920,6 +1993,9 @@
       <c r="S14" s="21">
         <v>8</v>
       </c>
+      <c r="T14" t="s">
+        <v>55</v>
+      </c>
       <c r="V14" s="23">
         <v>102</v>
       </c>
@@ -1968,6 +2044,9 @@
       <c r="S15" s="21">
         <v>14</v>
       </c>
+      <c r="T15" t="s">
+        <v>58</v>
+      </c>
       <c r="V15" s="23">
         <v>103</v>
       </c>
@@ -2016,6 +2095,9 @@
       <c r="S16" s="21">
         <v>14</v>
       </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
       <c r="V16" s="23">
         <v>104</v>
       </c>
@@ -2064,6 +2146,9 @@
       <c r="S17" s="21">
         <v>18</v>
       </c>
+      <c r="T17" t="s">
+        <v>55</v>
+      </c>
       <c r="V17" s="23">
         <v>105</v>
       </c>
@@ -2109,8 +2194,11 @@
       <c r="R18" s="20">
         <v>1280</v>
       </c>
-      <c r="S18" s="30">
+      <c r="S18" s="29">
         <v>16</v>
+      </c>
+      <c r="T18" t="s">
+        <v>57</v>
       </c>
       <c r="V18" s="23">
         <v>106</v>
@@ -2160,6 +2248,9 @@
       <c r="S19" s="21">
         <v>10</v>
       </c>
+      <c r="T19" t="s">
+        <v>55</v>
+      </c>
       <c r="V19" s="23">
         <v>107</v>
       </c>
@@ -2207,6 +2298,9 @@
       </c>
       <c r="S20" s="21">
         <v>16</v>
+      </c>
+      <c r="T20" t="s">
+        <v>58</v>
       </c>
       <c r="V20" s="23">
         <v>108</v>

--- a/Assets/BaseCalculos.xlsx
+++ b/Assets/BaseCalculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jogos Unity\StoneJungleCityV2\StoneJungleCity\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1027924-3B33-44BB-B3B6-F1E58FCC81BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF1D4E9-347A-4A06-895E-70E4394A2DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>Level</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Lendário</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -419,6 +422,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -434,7 +438,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,7 +783,7 @@
       <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
     </row>
@@ -792,7 +795,7 @@
         <f>B2*1.2</f>
         <v>72</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -802,7 +805,7 @@
         <f t="shared" ref="B4:B21" si="0">B3*1.2</f>
         <v>86.399999999999991</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -812,7 +815,7 @@
         <f t="shared" si="0"/>
         <v>103.67999999999999</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -822,7 +825,7 @@
         <f t="shared" si="0"/>
         <v>124.41599999999998</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -832,7 +835,7 @@
         <f t="shared" si="0"/>
         <v>149.29919999999998</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="31"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -842,7 +845,7 @@
         <f t="shared" si="0"/>
         <v>179.15903999999998</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -852,7 +855,7 @@
         <f t="shared" si="0"/>
         <v>214.99084799999997</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -862,7 +865,7 @@
         <f t="shared" si="0"/>
         <v>257.98901759999995</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -872,7 +875,7 @@
         <f t="shared" si="0"/>
         <v>309.58682111999991</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="31"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -882,7 +885,7 @@
         <f t="shared" si="0"/>
         <v>371.50418534399989</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -892,7 +895,7 @@
         <f t="shared" si="0"/>
         <v>445.80502241279987</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -902,7 +905,7 @@
         <f t="shared" si="0"/>
         <v>534.96602689535985</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -912,7 +915,7 @@
         <f t="shared" si="0"/>
         <v>641.95923227443177</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -922,7 +925,7 @@
         <f t="shared" si="0"/>
         <v>770.35107872931815</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="31"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -932,7 +935,7 @@
         <f t="shared" si="0"/>
         <v>924.42129447518175</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -942,7 +945,7 @@
         <f t="shared" si="0"/>
         <v>1109.3055533702181</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="31"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -952,7 +955,7 @@
         <f t="shared" si="0"/>
         <v>1331.1666640442618</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -962,7 +965,7 @@
         <f t="shared" si="0"/>
         <v>1597.3999968531141</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -972,7 +975,7 @@
         <f t="shared" si="0"/>
         <v>1916.8799962237367</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -982,7 +985,7 @@
         <f>B21*1.3</f>
         <v>2491.9439950908577</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="31" t="s">
         <v>3</v>
       </c>
     </row>
@@ -994,7 +997,7 @@
         <f t="shared" ref="B23:B36" si="1">B22*1.5</f>
         <v>3737.9159926362863</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1004,7 +1007,7 @@
         <f t="shared" si="1"/>
         <v>5606.8739889544295</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1014,7 +1017,7 @@
         <f t="shared" si="1"/>
         <v>8410.3109834316438</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1024,7 +1027,7 @@
         <f t="shared" si="1"/>
         <v>12615.466475147467</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1034,7 +1037,7 @@
         <f t="shared" si="1"/>
         <v>18923.199712721202</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="31"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1044,7 +1047,7 @@
         <f t="shared" si="1"/>
         <v>28384.799569081802</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="31"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1054,7 +1057,7 @@
         <f t="shared" si="1"/>
         <v>42577.199353622702</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1064,7 +1067,7 @@
         <f t="shared" si="1"/>
         <v>63865.799030434049</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="31"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1074,7 +1077,7 @@
         <f t="shared" si="1"/>
         <v>95798.698545651074</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="31"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1084,7 +1087,7 @@
         <f t="shared" si="1"/>
         <v>143698.04781847663</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1094,7 +1097,7 @@
         <f t="shared" si="1"/>
         <v>215547.07172771494</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="31"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1104,7 +1107,7 @@
         <f t="shared" si="1"/>
         <v>323320.60759157239</v>
       </c>
-      <c r="C34" s="30"/>
+      <c r="C34" s="31"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1114,7 +1117,7 @@
         <f t="shared" si="1"/>
         <v>484980.91138735856</v>
       </c>
-      <c r="C35" s="30"/>
+      <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1124,7 +1127,7 @@
         <f t="shared" si="1"/>
         <v>727471.36708103784</v>
       </c>
-      <c r="C36" s="30"/>
+      <c r="C36" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1169,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A59586-0C0B-4140-93D4-3BF2EBFC0FC3}">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
@@ -1186,34 +1189,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="H1" s="32" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="O1" s="33" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="O1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="V1" s="34" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="V1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1751,7 +1754,7 @@
       <c r="L10" s="15">
         <v>14</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="30" t="s">
         <v>56</v>
       </c>
       <c r="O10" s="17">
@@ -2309,6 +2312,11 @@
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
       <c r="Z20" s="27"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Assets/BaseCalculos.xlsx
+++ b/Assets/BaseCalculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jogos Unity\StoneJungleCityV2\StoneJungleCity\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF1D4E9-347A-4A06-895E-70E4394A2DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE5DE2C-9D36-4AE9-A7D8-63D5D47EE1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
+    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390" tabRatio="599" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo Level por XP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
   <si>
     <t>Level</t>
   </si>
@@ -215,15 +215,26 @@
     <t>Lendário</t>
   </si>
   <si>
-    <t>q</t>
+    <t>Fator</t>
+  </si>
+  <si>
+    <t>Raridade</t>
+  </si>
+  <si>
+    <t>Cálculo de Valor de Compra</t>
+  </si>
+  <si>
+    <t>Cálculo de Valor de Produção</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -264,16 +275,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +318,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -334,12 +360,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -359,9 +413,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,12 +425,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,9 +437,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -419,10 +461,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -438,12 +476,256 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -783,7 +1065,7 @@
       <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -795,7 +1077,7 @@
         <f>B2*1.2</f>
         <v>72</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -805,7 +1087,7 @@
         <f t="shared" ref="B4:B21" si="0">B3*1.2</f>
         <v>86.399999999999991</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -815,7 +1097,7 @@
         <f t="shared" si="0"/>
         <v>103.67999999999999</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -825,7 +1107,7 @@
         <f t="shared" si="0"/>
         <v>124.41599999999998</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -835,7 +1117,7 @@
         <f t="shared" si="0"/>
         <v>149.29919999999998</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -845,7 +1127,7 @@
         <f t="shared" si="0"/>
         <v>179.15903999999998</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -855,7 +1137,7 @@
         <f t="shared" si="0"/>
         <v>214.99084799999997</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -865,7 +1147,7 @@
         <f t="shared" si="0"/>
         <v>257.98901759999995</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -875,7 +1157,7 @@
         <f t="shared" si="0"/>
         <v>309.58682111999991</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -885,7 +1167,7 @@
         <f t="shared" si="0"/>
         <v>371.50418534399989</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -895,7 +1177,7 @@
         <f t="shared" si="0"/>
         <v>445.80502241279987</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -905,7 +1187,7 @@
         <f t="shared" si="0"/>
         <v>534.96602689535985</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -915,7 +1197,7 @@
         <f t="shared" si="0"/>
         <v>641.95923227443177</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -925,7 +1207,7 @@
         <f t="shared" si="0"/>
         <v>770.35107872931815</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -935,7 +1217,7 @@
         <f t="shared" si="0"/>
         <v>924.42129447518175</v>
       </c>
-      <c r="C17" s="31"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -945,7 +1227,7 @@
         <f t="shared" si="0"/>
         <v>1109.3055533702181</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -955,7 +1237,7 @@
         <f t="shared" si="0"/>
         <v>1331.1666640442618</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -965,7 +1247,7 @@
         <f t="shared" si="0"/>
         <v>1597.3999968531141</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -975,7 +1257,7 @@
         <f t="shared" si="0"/>
         <v>1916.8799962237367</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -985,7 +1267,7 @@
         <f>B21*1.3</f>
         <v>2491.9439950908577</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -997,7 +1279,7 @@
         <f t="shared" ref="B23:B36" si="1">B22*1.5</f>
         <v>3737.9159926362863</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1007,7 +1289,7 @@
         <f t="shared" si="1"/>
         <v>5606.8739889544295</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1017,7 +1299,7 @@
         <f t="shared" si="1"/>
         <v>8410.3109834316438</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="25"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1027,7 +1309,7 @@
         <f t="shared" si="1"/>
         <v>12615.466475147467</v>
       </c>
-      <c r="C26" s="31"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1037,7 +1319,7 @@
         <f t="shared" si="1"/>
         <v>18923.199712721202</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1047,7 +1329,7 @@
         <f t="shared" si="1"/>
         <v>28384.799569081802</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1057,7 +1339,7 @@
         <f t="shared" si="1"/>
         <v>42577.199353622702</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1067,7 +1349,7 @@
         <f t="shared" si="1"/>
         <v>63865.799030434049</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1077,7 +1359,7 @@
         <f t="shared" si="1"/>
         <v>95798.698545651074</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1087,7 +1369,7 @@
         <f t="shared" si="1"/>
         <v>143698.04781847663</v>
       </c>
-      <c r="C32" s="31"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1097,7 +1379,7 @@
         <f t="shared" si="1"/>
         <v>215547.07172771494</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="25"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1107,7 +1389,7 @@
         <f t="shared" si="1"/>
         <v>323320.60759157239</v>
       </c>
-      <c r="C34" s="31"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1117,7 +1399,7 @@
         <f t="shared" si="1"/>
         <v>484980.91138735856</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1127,7 +1409,7 @@
         <f t="shared" si="1"/>
         <v>727471.36708103784</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1172,51 +1454,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A59586-0C0B-4140-93D4-3BF2EBFC0FC3}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="H1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="O1" s="34" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="O1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="V1" s="35" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="V1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1234,49 +1523,52 @@
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="Z2" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1287,64 +1579,70 @@
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="38">
         <v>10</v>
       </c>
-      <c r="D3" s="9">
-        <v>5</v>
+      <c r="D3" s="45">
+        <f>IF(F3=$A$31,C3/$B$31,IF(F3=$A$32,C3/$B$32,IF(F3=$A$33,C3/$B$33,IF(F3=$A$34,C3/$B$34))))</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E3" s="8">
         <v>3</v>
       </c>
-      <c r="H3" s="11">
+      <c r="F3" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="37">
+        <v>150</v>
+      </c>
+      <c r="K3" s="43">
+        <f>IF(M3=$A$31,J3/$B$31,IF(M3=$A$32,J3/$B$32,IF(M3=$A$33,J3/$B$33,IF(M3=$A$34,J3/$B$34))))</f>
+        <v>25</v>
+      </c>
+      <c r="L3" s="12">
+        <v>3</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="14">
+        <v>61</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="36">
+        <v>180</v>
+      </c>
+      <c r="R3" s="44">
+        <f>IF(T3=$A$31,Q3/$B$31,IF(T3=$A$32,Q3/$B$32,IF(T3=$A$33,Q3/$B$33,IF(T3=$A$34,Q3/$B$34))))</f>
+        <v>30</v>
+      </c>
+      <c r="S3" s="16">
+        <v>5</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="19">
+        <v>91</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="21">
+        <v>230</v>
+      </c>
+      <c r="Y3" s="22">
         <v>0</v>
       </c>
-      <c r="K3" s="14">
-        <v>2</v>
-      </c>
-      <c r="L3" s="13">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="17">
-        <v>61</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>180</v>
-      </c>
-      <c r="R3" s="20">
-        <v>15</v>
-      </c>
-      <c r="S3" s="19">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="23">
-        <v>91</v>
-      </c>
-      <c r="W3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="25">
-        <v>230</v>
-      </c>
-      <c r="Y3" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="25">
+      <c r="Z3" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1355,60 +1653,70 @@
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8">
-        <f>C3*2</f>
+      <c r="C4" s="38">
+        <f>IF(F4=$A$26,C3*$B$26,IF(F4=$A$27,C3*$B$27,IF(F4=$A$28,C3*$B$28,IF(F4=$A$29,C3*$B$29))))</f>
         <v>20</v>
       </c>
-      <c r="D4" s="9">
-        <f>D3+(D3*15%)</f>
-        <v>5.75</v>
+      <c r="D4" s="45">
+        <f t="shared" ref="D4:D20" si="0">IF(F4=$A$31,C4/$B$31,IF(F4=$A$32,C4/$B$32,IF(F4=$A$33,C4/$B$33,IF(F4=$A$34,C4/$B$34))))</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E4" s="8">
-        <v>3</v>
-      </c>
-      <c r="H4" s="11">
+        <f>E3+E3</f>
+        <v>6</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="10">
         <v>31</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="37">
+        <f>IF(M4=$A$26,J3*$B$26,IF(M4=$A$27,J3*$B$27,IF(M4=$A$28,J3*$B$28,IF(M4=$A$29,J3*$B$29))))</f>
         <v>300</v>
       </c>
-      <c r="K4" s="14">
-        <v>80</v>
-      </c>
-      <c r="L4" s="13">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="17">
+      <c r="K4" s="43">
+        <f t="shared" ref="K4:K20" si="1">IF(M4=$A$31,J4/$B$31,IF(M4=$A$32,J4/$B$32,IF(M4=$A$33,J4/$B$33,IF(M4=$A$34,J4/$B$34))))</f>
+        <v>50</v>
+      </c>
+      <c r="L4" s="12">
+        <f>L3+(L3*2)</f>
+        <v>9</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="14">
         <v>62</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="36">
+        <f>IF(T4=$A$26,Q3*$B$26,IF(T4=$A$27,Q3*$B$27,IF(T4=$A$28,Q3*$B$28,IF(T4=$A$29,Q3*$B$29))))</f>
         <v>360</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="44">
+        <f t="shared" ref="R4:R20" si="2">IF(T4=$A$31,Q4/$B$31,IF(T4=$A$32,Q4/$B$32,IF(T4=$A$33,Q4/$B$33,IF(T4=$A$34,Q4/$B$34))))</f>
         <v>60</v>
       </c>
-      <c r="S4" s="19">
-        <v>2</v>
-      </c>
-      <c r="T4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="23">
+      <c r="S4" s="16">
+        <f>S3+S3</f>
+        <v>10</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="19">
         <v>92</v>
       </c>
-      <c r="W4" s="24"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="25"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -1417,62 +1725,70 @@
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8">
-        <f t="shared" ref="C5:C20" si="0">C4*2</f>
-        <v>40</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" ref="D5:D20" si="1">D4+(D4*15%)</f>
-        <v>6.6124999999999998</v>
+      <c r="C5" s="38">
+        <f t="shared" ref="C5:C20" si="3">IF(F5=$A$26,C4*$B$26,IF(F5=$A$27,C4*$B$27,IF(F5=$A$28,C4*$B$28,IF(F5=$A$29,C4*$B$29))))</f>
+        <v>60</v>
+      </c>
+      <c r="D5" s="45">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="E5" s="8">
-        <v>3</v>
-      </c>
-      <c r="H5" s="11">
+        <f>E4+E4</f>
+        <v>12</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="10">
         <v>32</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="14">
-        <f>J4+(J4*60%)</f>
-        <v>480</v>
-      </c>
-      <c r="K5" s="14">
-        <f t="shared" ref="K5:K12" si="2">K4+(K4*15%)</f>
-        <v>92</v>
-      </c>
-      <c r="L5" s="13">
-        <v>10</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="17">
+      <c r="J5" s="37">
+        <f t="shared" ref="J5:J20" si="4">IF(M5=$A$26,J4*$B$26,IF(M5=$A$27,J4*$B$27,IF(M5=$A$28,J4*$B$28,IF(M5=$A$29,J4*$B$29))))</f>
+        <v>600</v>
+      </c>
+      <c r="K5" s="43">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L5" s="12">
+        <f>L4+L4</f>
+        <v>18</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="14">
         <v>63</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="20">
-        <v>580</v>
-      </c>
-      <c r="R5" s="20">
-        <v>70</v>
-      </c>
-      <c r="S5" s="19">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="23">
+      <c r="Q5" s="36">
+        <f t="shared" ref="Q5:Q20" si="5">IF(T5=$A$26,Q4*$B$26,IF(T5=$A$27,Q4*$B$27,IF(T5=$A$28,Q4*$B$28,IF(T5=$A$29,Q4*$B$29))))</f>
+        <v>720</v>
+      </c>
+      <c r="R5" s="44">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="S5" s="16">
+        <f>S4+S4</f>
+        <v>20</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="19">
         <v>93</v>
       </c>
-      <c r="W5" s="24"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="25"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="21"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -1481,61 +1797,70 @@
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="38">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="D6" s="45">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E6" s="8">
+        <f>E5+E5</f>
+        <v>24</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="10">
+        <v>33</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="37">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="K6" s="43">
         <f t="shared" si="1"/>
-        <v>7.6043750000000001</v>
-      </c>
-      <c r="E6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="11">
-        <v>33</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="14">
-        <v>560</v>
-      </c>
-      <c r="K6" s="14">
+        <v>200</v>
+      </c>
+      <c r="L6" s="12">
+        <f>L5+L5</f>
+        <v>36</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="14">
+        <v>64</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="36">
+        <f t="shared" si="5"/>
+        <v>1440</v>
+      </c>
+      <c r="R6" s="44">
         <f t="shared" si="2"/>
-        <v>105.8</v>
-      </c>
-      <c r="L6" s="13">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="17">
-        <v>64</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>560</v>
-      </c>
-      <c r="R6" s="20">
-        <v>90</v>
-      </c>
-      <c r="S6" s="19">
-        <v>2</v>
-      </c>
-      <c r="T6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V6" s="23">
+        <v>240</v>
+      </c>
+      <c r="S6" s="16">
+        <f>S5+S5</f>
+        <v>40</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" s="19">
         <v>94</v>
       </c>
-      <c r="W6" s="24"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="25"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="21"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1544,59 +1869,70 @@
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="D7" s="9">
-        <v>15</v>
+      <c r="C7" s="38">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="D7" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="E7" s="8">
-        <v>5</v>
-      </c>
-      <c r="H7" s="11">
+        <f>E6+60</f>
+        <v>84</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="10">
         <v>34</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="14">
-        <v>500</v>
-      </c>
-      <c r="K7" s="14">
-        <v>180</v>
-      </c>
-      <c r="L7" s="13">
-        <v>12</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="J7" s="37">
+        <f t="shared" si="4"/>
+        <v>3600</v>
+      </c>
+      <c r="K7" s="43">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="L7" s="12">
+        <f>L6+L6</f>
+        <v>72</v>
+      </c>
+      <c r="M7" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="14">
         <v>65</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="20">
-        <v>1200</v>
-      </c>
-      <c r="R7" s="20">
-        <v>160</v>
-      </c>
-      <c r="S7" s="19">
-        <v>3</v>
-      </c>
-      <c r="T7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="23">
+      <c r="Q7" s="36">
+        <f t="shared" si="5"/>
+        <v>2880</v>
+      </c>
+      <c r="R7" s="44">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="S7" s="16">
+        <f>S6+S6</f>
+        <v>80</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="19">
         <v>95</v>
       </c>
-      <c r="W7" s="24"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="25"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="21"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -1605,59 +1941,69 @@
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="D8" s="9">
-        <v>30</v>
+      <c r="C8" s="38">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+      <c r="D8" s="45">
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
       <c r="E8" s="8">
-        <v>10</v>
-      </c>
-      <c r="H8" s="11">
+        <f>E7+E7</f>
+        <v>168</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="10">
         <v>35</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="14">
-        <v>1200</v>
-      </c>
-      <c r="K8" s="14">
-        <v>240</v>
-      </c>
-      <c r="L8" s="13">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="J8" s="37">
+        <f t="shared" si="4"/>
+        <v>10800</v>
+      </c>
+      <c r="K8" s="43">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="L8" s="12">
+        <v>140</v>
+      </c>
+      <c r="M8" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="14">
         <v>66</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="20">
-        <v>1800</v>
-      </c>
-      <c r="R8" s="20">
-        <v>280</v>
-      </c>
-      <c r="S8" s="19">
-        <v>5</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="Q8" s="36">
+        <f t="shared" si="5"/>
+        <v>8640</v>
+      </c>
+      <c r="R8" s="44">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="S8" s="16">
+        <f>S7+S7</f>
+        <v>160</v>
+      </c>
+      <c r="T8" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="19">
         <v>96</v>
       </c>
-      <c r="W8" s="24"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="25"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="21"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -1666,59 +2012,70 @@
       <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="38">
+        <f t="shared" si="3"/>
+        <v>2160</v>
+      </c>
+      <c r="D9" s="45">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="E9" s="24">
+        <f>E8+E8</f>
+        <v>336</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="10">
+        <v>36</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="37">
+        <f t="shared" si="4"/>
+        <v>21600</v>
+      </c>
+      <c r="K9" s="43">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="L9" s="12">
+        <f>L8+60</f>
+        <v>200</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="14">
+        <v>67</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="36">
+        <f t="shared" si="5"/>
+        <v>17280</v>
+      </c>
+      <c r="R9" s="44">
+        <f t="shared" si="2"/>
+        <v>2880</v>
+      </c>
+      <c r="S9" s="17">
+        <f>S5+S5</f>
         <v>40</v>
       </c>
-      <c r="D9" s="9">
-        <v>7</v>
-      </c>
-      <c r="E9" s="28">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11">
-        <v>36</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="14">
-        <v>1500</v>
-      </c>
-      <c r="K9" s="14">
-        <f t="shared" si="2"/>
-        <v>276</v>
-      </c>
-      <c r="L9" s="15">
-        <v>8</v>
-      </c>
-      <c r="M9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="17">
-        <v>67</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>360</v>
-      </c>
-      <c r="R9" s="20">
-        <v>60</v>
-      </c>
-      <c r="S9" s="21">
-        <v>2</v>
-      </c>
       <c r="T9" t="s">
         <v>55</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V9" s="19">
         <v>97</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="27"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="23"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -1727,61 +2084,70 @@
       <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="8">
-        <v>80</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="38">
+        <f t="shared" si="3"/>
+        <v>4320</v>
+      </c>
+      <c r="D10" s="45">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="E10" s="24">
+        <f>E9+60</f>
+        <v>396</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="10">
+        <v>37</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="37">
+        <f t="shared" si="4"/>
+        <v>64800</v>
+      </c>
+      <c r="K10" s="43">
         <f t="shared" si="1"/>
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="E10" s="28">
-        <v>3</v>
-      </c>
-      <c r="H10" s="11">
-        <v>37</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" ref="J10" si="3">J9+(J9*60%)</f>
-        <v>2400</v>
-      </c>
-      <c r="K10" s="14">
+        <v>10800</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" ref="L10:L20" si="6">L9+60</f>
+        <v>260</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="14">
+        <v>68</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="36">
+        <f t="shared" si="5"/>
+        <v>34560</v>
+      </c>
+      <c r="R10" s="44">
         <f t="shared" si="2"/>
-        <v>317.39999999999998</v>
-      </c>
-      <c r="L10" s="15">
-        <v>14</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="17">
-        <v>68</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>2800</v>
-      </c>
-      <c r="R10" s="20">
-        <v>520</v>
-      </c>
-      <c r="S10" s="21">
-        <v>10</v>
-      </c>
-      <c r="T10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V10" s="23">
+        <v>5760</v>
+      </c>
+      <c r="S10" s="17">
+        <f>S8+S8</f>
+        <v>320</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" s="19">
         <v>98</v>
       </c>
-      <c r="W10" s="23"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="27"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="23"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -1790,59 +2156,70 @@
       <c r="B11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="8">
-        <v>160</v>
-      </c>
-      <c r="D11" s="9">
-        <v>15</v>
-      </c>
-      <c r="E11" s="28">
-        <v>5</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="C11" s="38">
+        <f t="shared" si="3"/>
+        <v>12960</v>
+      </c>
+      <c r="D11" s="45">
+        <f t="shared" si="0"/>
+        <v>2160</v>
+      </c>
+      <c r="E11" s="24">
+        <f t="shared" ref="E11:E20" si="7">E10+60</f>
+        <v>456</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="10">
         <v>38</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="14">
-        <v>800</v>
-      </c>
-      <c r="K11" s="14">
+      <c r="J11" s="37">
+        <f t="shared" si="4"/>
+        <v>194400</v>
+      </c>
+      <c r="K11" s="43">
+        <f t="shared" si="1"/>
+        <v>32400</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="6"/>
+        <v>320</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="14">
+        <v>69</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="36">
+        <f t="shared" si="5"/>
+        <v>103680</v>
+      </c>
+      <c r="R11" s="44">
         <f t="shared" si="2"/>
-        <v>365.01</v>
-      </c>
-      <c r="L11" s="15">
-        <v>12</v>
-      </c>
-      <c r="M11" t="s">
+        <v>17280</v>
+      </c>
+      <c r="S11" s="17">
+        <f>S10+60</f>
+        <v>380</v>
+      </c>
+      <c r="T11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="17">
-        <v>69</v>
-      </c>
-      <c r="P11" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>4500</v>
-      </c>
-      <c r="R11" s="20">
-        <v>800</v>
-      </c>
-      <c r="S11" s="21">
-        <v>15</v>
-      </c>
-      <c r="T11" t="s">
-        <v>56</v>
-      </c>
-      <c r="V11" s="23">
+      <c r="V11" s="19">
         <v>99</v>
       </c>
-      <c r="W11" s="23"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="27"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="23"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -1851,60 +2228,70 @@
       <c r="B12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="8">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="D12" s="9">
-        <v>30</v>
-      </c>
-      <c r="E12" s="28">
-        <v>10</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="C12" s="38">
+        <f t="shared" si="3"/>
+        <v>38880</v>
+      </c>
+      <c r="D12" s="45">
+        <f t="shared" si="0"/>
+        <v>6480</v>
+      </c>
+      <c r="E12" s="24">
+        <f t="shared" si="7"/>
+        <v>516</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="10">
         <v>39</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="14">
-        <v>1000</v>
-      </c>
-      <c r="K12" s="14">
+      <c r="J12" s="37">
+        <f t="shared" si="4"/>
+        <v>388800</v>
+      </c>
+      <c r="K12" s="43">
+        <f t="shared" si="1"/>
+        <v>64800</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="6"/>
+        <v>380</v>
+      </c>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="14">
+        <v>70</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="36">
+        <f t="shared" si="5"/>
+        <v>207360</v>
+      </c>
+      <c r="R12" s="44">
         <f t="shared" si="2"/>
-        <v>419.76150000000001</v>
-      </c>
-      <c r="L12" s="15">
-        <v>14</v>
-      </c>
-      <c r="M12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="17">
-        <v>70</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>10500</v>
-      </c>
-      <c r="R12" s="20">
-        <v>1800</v>
-      </c>
-      <c r="S12" s="21">
-        <v>18</v>
+        <v>34560</v>
+      </c>
+      <c r="S12" s="17">
+        <f t="shared" ref="S12:S20" si="8">S11+60</f>
+        <v>440</v>
       </c>
       <c r="T12" t="s">
         <v>55</v>
       </c>
-      <c r="V12" s="23">
+      <c r="V12" s="19">
         <v>100</v>
       </c>
-      <c r="W12" s="23"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="23"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -1913,48 +2300,68 @@
       <c r="B13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="8">
-        <f t="shared" si="0"/>
-        <v>640</v>
-      </c>
-      <c r="D13" s="9">
-        <v>125</v>
-      </c>
-      <c r="E13" s="28">
-        <v>6</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="C13" s="38">
+        <f t="shared" si="3"/>
+        <v>194400</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" si="0"/>
+        <v>38880</v>
+      </c>
+      <c r="E13" s="24">
+        <f t="shared" si="7"/>
+        <v>576</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="10">
         <v>40</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
-      <c r="O13" s="17">
+      <c r="I13" s="10"/>
+      <c r="J13" s="37">
+        <f t="shared" si="4"/>
+        <v>777600</v>
+      </c>
+      <c r="K13" s="43">
+        <f>IF(M13=$A$31,J13/$B$31,IF(M13=$A$32,J13/$B$32,IF(M13=$A$33,J13/$B$33,IF(M13=$A$34,J13/$B$34))))</f>
+        <v>129600</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="14">
         <v>71</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="20">
-        <v>8600</v>
-      </c>
-      <c r="R13" s="20">
-        <v>780</v>
-      </c>
-      <c r="S13" s="21">
-        <v>10</v>
+      <c r="Q13" s="36">
+        <f t="shared" si="5"/>
+        <v>1036800</v>
+      </c>
+      <c r="R13" s="44">
+        <f t="shared" si="2"/>
+        <v>207360</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" si="8"/>
+        <v>500</v>
       </c>
       <c r="T13" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="23">
+      <c r="V13" s="19">
         <v>101</v>
       </c>
-      <c r="W13" s="23"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="23"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -1963,49 +2370,68 @@
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8">
-        <f t="shared" si="0"/>
-        <v>1280</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C14" s="38">
+        <f t="shared" si="3"/>
+        <v>388800</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" si="0"/>
+        <v>64800</v>
+      </c>
+      <c r="E14" s="24">
+        <f t="shared" si="7"/>
+        <v>636</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="10">
+        <v>41</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="37">
+        <f t="shared" si="4"/>
+        <v>1555200</v>
+      </c>
+      <c r="K14" s="43">
         <f t="shared" si="1"/>
-        <v>143.75</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="11">
-        <v>41</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-      <c r="O14" s="17">
+        <v>259200</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="14">
         <v>72</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="20">
-        <v>4600</v>
-      </c>
-      <c r="R14" s="20">
-        <v>520</v>
-      </c>
-      <c r="S14" s="21">
-        <v>8</v>
+      <c r="Q14" s="36">
+        <f t="shared" si="5"/>
+        <v>2073600</v>
+      </c>
+      <c r="R14" s="44">
+        <f t="shared" si="2"/>
+        <v>345600</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="8"/>
+        <v>560</v>
       </c>
       <c r="T14" t="s">
         <v>55</v>
       </c>
-      <c r="V14" s="23">
+      <c r="V14" s="19">
         <v>102</v>
       </c>
-      <c r="W14" s="23"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="23"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -2014,49 +2440,68 @@
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8">
-        <f t="shared" si="0"/>
-        <v>2560</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="C15" s="38">
+        <f t="shared" si="3"/>
+        <v>777600</v>
+      </c>
+      <c r="D15" s="45">
+        <f t="shared" si="0"/>
+        <v>129600</v>
+      </c>
+      <c r="E15" s="24">
+        <f t="shared" si="7"/>
+        <v>696</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="10">
+        <v>42</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="37">
+        <f t="shared" si="4"/>
+        <v>3110400</v>
+      </c>
+      <c r="K15" s="43">
         <f t="shared" si="1"/>
-        <v>165.3125</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="11">
-        <v>42</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="O15" s="17">
+        <v>518400</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="6"/>
+        <v>560</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="14">
         <v>73</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q15" s="20">
-        <v>16500</v>
-      </c>
-      <c r="R15" s="20">
-        <v>1920</v>
-      </c>
-      <c r="S15" s="21">
-        <v>14</v>
+      <c r="Q15" s="36">
+        <f t="shared" si="5"/>
+        <v>14515200</v>
+      </c>
+      <c r="R15" s="44">
+        <f t="shared" si="2"/>
+        <v>3628800</v>
+      </c>
+      <c r="S15" s="17">
+        <f t="shared" si="8"/>
+        <v>620</v>
       </c>
       <c r="T15" t="s">
         <v>58</v>
       </c>
-      <c r="V15" s="23">
+      <c r="V15" s="19">
         <v>103</v>
       </c>
-      <c r="W15" s="23"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="23"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -2065,49 +2510,68 @@
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8">
-        <f t="shared" si="0"/>
-        <v>5120</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C16" s="38">
+        <f t="shared" si="3"/>
+        <v>1555200</v>
+      </c>
+      <c r="D16" s="45">
+        <f t="shared" si="0"/>
+        <v>259200</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" si="7"/>
+        <v>756</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="10">
+        <v>43</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="37">
+        <f t="shared" si="4"/>
+        <v>6220800</v>
+      </c>
+      <c r="K16" s="43">
         <f t="shared" si="1"/>
-        <v>190.109375</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="11">
-        <v>43</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
-      <c r="O16" s="17">
+        <v>1036800</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="6"/>
+        <v>620</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="14">
         <v>74</v>
       </c>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="20">
-        <v>9600</v>
-      </c>
-      <c r="R16" s="20">
-        <v>1110</v>
-      </c>
-      <c r="S16" s="21">
-        <v>14</v>
+      <c r="Q16" s="36">
+        <f t="shared" si="5"/>
+        <v>101606400</v>
+      </c>
+      <c r="R16" s="44">
+        <f t="shared" si="2"/>
+        <v>25401600</v>
+      </c>
+      <c r="S16" s="17">
+        <f t="shared" si="8"/>
+        <v>680</v>
       </c>
       <c r="T16" t="s">
         <v>58</v>
       </c>
-      <c r="V16" s="23">
+      <c r="V16" s="19">
         <v>104</v>
       </c>
-      <c r="W16" s="23"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -2116,49 +2580,68 @@
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8">
-        <f t="shared" si="0"/>
-        <v>10240</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="C17" s="38">
+        <f t="shared" si="3"/>
+        <v>3110400</v>
+      </c>
+      <c r="D17" s="45">
+        <f t="shared" si="0"/>
+        <v>518400</v>
+      </c>
+      <c r="E17" s="24">
+        <f t="shared" si="7"/>
+        <v>816</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="10">
+        <v>44</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="37">
+        <f t="shared" si="4"/>
+        <v>12441600</v>
+      </c>
+      <c r="K17" s="43">
         <f t="shared" si="1"/>
-        <v>218.62578124999999</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="11">
-        <v>44</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
-      <c r="O17" s="17">
+        <v>2073600</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="6"/>
+        <v>680</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="14">
         <v>75</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q17" s="20">
-        <v>16800</v>
-      </c>
-      <c r="R17" s="20">
-        <v>2100</v>
-      </c>
-      <c r="S17" s="21">
-        <v>18</v>
+      <c r="Q17" s="36">
+        <f t="shared" si="5"/>
+        <v>203212800</v>
+      </c>
+      <c r="R17" s="44">
+        <f t="shared" si="2"/>
+        <v>33868800</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" si="8"/>
+        <v>740</v>
       </c>
       <c r="T17" t="s">
         <v>55</v>
       </c>
-      <c r="V17" s="23">
+      <c r="V17" s="19">
         <v>105</v>
       </c>
-      <c r="W17" s="23"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="23"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -2167,49 +2650,68 @@
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="8">
-        <f t="shared" si="0"/>
-        <v>20480</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C18" s="38">
+        <f t="shared" si="3"/>
+        <v>6220800</v>
+      </c>
+      <c r="D18" s="45">
+        <f t="shared" si="0"/>
+        <v>1036800</v>
+      </c>
+      <c r="E18" s="24">
+        <f t="shared" si="7"/>
+        <v>876</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="10">
+        <v>45</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="37">
+        <f t="shared" si="4"/>
+        <v>24883200</v>
+      </c>
+      <c r="K18" s="43">
         <f t="shared" si="1"/>
-        <v>251.41964843749997</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="11">
-        <v>45</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-      <c r="O18" s="17">
+        <v>4147200</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="6"/>
+        <v>740</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="14">
         <v>76</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="20">
-        <v>12500</v>
-      </c>
-      <c r="R18" s="20">
-        <v>1280</v>
-      </c>
-      <c r="S18" s="29">
-        <v>16</v>
+      <c r="Q18" s="36">
+        <f t="shared" si="5"/>
+        <v>1016064000</v>
+      </c>
+      <c r="R18" s="44">
+        <f t="shared" si="2"/>
+        <v>203212800</v>
+      </c>
+      <c r="S18" s="17">
+        <f t="shared" si="8"/>
+        <v>800</v>
       </c>
       <c r="T18" t="s">
         <v>57</v>
       </c>
-      <c r="V18" s="23">
+      <c r="V18" s="19">
         <v>106</v>
       </c>
-      <c r="W18" s="23"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="23"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -2218,49 +2720,68 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="8">
-        <f t="shared" si="0"/>
-        <v>40960</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="C19" s="38">
+        <f t="shared" si="3"/>
+        <v>12441600</v>
+      </c>
+      <c r="D19" s="45">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="E19" s="24">
+        <f t="shared" si="7"/>
+        <v>936</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="10">
+        <v>46</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="37">
+        <f t="shared" si="4"/>
+        <v>49766400</v>
+      </c>
+      <c r="K19" s="43">
         <f t="shared" si="1"/>
-        <v>289.13259570312499</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="11">
-        <v>46</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-      <c r="O19" s="17">
+        <v>8294400</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="14">
         <v>77</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="P19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="20">
-        <v>9400</v>
-      </c>
-      <c r="R19" s="20">
-        <v>980</v>
-      </c>
-      <c r="S19" s="21">
-        <v>10</v>
+      <c r="Q19" s="36">
+        <f t="shared" si="5"/>
+        <v>2032128000</v>
+      </c>
+      <c r="R19" s="44">
+        <f t="shared" si="2"/>
+        <v>338688000</v>
+      </c>
+      <c r="S19" s="17">
+        <f t="shared" si="8"/>
+        <v>860</v>
       </c>
       <c r="T19" t="s">
         <v>55</v>
       </c>
-      <c r="V19" s="23">
+      <c r="V19" s="19">
         <v>107</v>
       </c>
-      <c r="W19" s="23"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="23"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -2269,62 +2790,214 @@
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="8">
-        <f t="shared" si="0"/>
-        <v>81920</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C20" s="38">
+        <f t="shared" si="3"/>
+        <v>24883200</v>
+      </c>
+      <c r="D20" s="45">
+        <f t="shared" si="0"/>
+        <v>4147200</v>
+      </c>
+      <c r="E20" s="24">
+        <f t="shared" si="7"/>
+        <v>996</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="10">
+        <v>47</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="37">
+        <f t="shared" si="4"/>
+        <v>99532800</v>
+      </c>
+      <c r="K20" s="43">
         <f t="shared" si="1"/>
-        <v>332.50248505859372</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="11">
-        <v>47</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="O20" s="17">
+        <v>16588800</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="6"/>
+        <v>860</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="14">
         <v>78</v>
       </c>
-      <c r="P20" s="17" t="s">
+      <c r="P20" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q20" s="20">
-        <v>16000</v>
-      </c>
-      <c r="R20" s="20">
-        <v>3500</v>
-      </c>
-      <c r="S20" s="21">
-        <v>16</v>
+      <c r="Q20" s="36">
+        <f t="shared" si="5"/>
+        <v>14224896000</v>
+      </c>
+      <c r="R20" s="44">
+        <f t="shared" si="2"/>
+        <v>3556224000</v>
+      </c>
+      <c r="S20" s="17">
+        <f t="shared" si="8"/>
+        <v>920</v>
       </c>
       <c r="T20" t="s">
         <v>58</v>
       </c>
-      <c r="V20" s="23">
+      <c r="V20" s="19">
         <v>108</v>
       </c>
-      <c r="W20" s="23"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="T21" t="s">
+      <c r="W20" s="19"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="23"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E22" s="35">
+        <f>E20/60</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L22" s="34">
+        <f>L20/60</f>
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="40"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="41"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="42">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
+  <conditionalFormatting sqref="T3:T20">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Lendário">
+      <formula>NOT(ISERROR(SEARCH("Lendário",T3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Epico">
+      <formula>NOT(ISERROR(SEARCH("Epico",T3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Raro">
+      <formula>NOT(ISERROR(SEARCH("Raro",T3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Comum">
+      <formula>NOT(ISERROR(SEARCH("Comum",T3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M20">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Lendário">
+      <formula>NOT(ISERROR(SEARCH("Lendário",M3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Epico">
+      <formula>NOT(ISERROR(SEARCH("Epico",M3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Raro">
+      <formula>NOT(ISERROR(SEARCH("Raro",M3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Comum">
+      <formula>NOT(ISERROR(SEARCH("Comum",M3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Lendário">
+      <formula>NOT(ISERROR(SEARCH("Lendário",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Epico">
+      <formula>NOT(ISERROR(SEARCH("Epico",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Raro">
+      <formula>NOT(ISERROR(SEARCH("Raro",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Comum">
+      <formula>NOT(ISERROR(SEARCH("Comum",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Assets/BaseCalculos.xlsx
+++ b/Assets/BaseCalculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jogos Unity\StoneJungleCityV2\StoneJungleCity\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE5DE2C-9D36-4AE9-A7D8-63D5D47EE1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D061DB45-56E1-41F9-B64E-0CBC5AD24259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390" tabRatio="599" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo Level por XP" sheetId="1" r:id="rId1"/>
@@ -234,9 +234,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +275,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -393,7 +400,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -401,18 +408,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,24 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -486,22 +463,13 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -509,11 +477,53 @@
     <xf numFmtId="11" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -521,7 +531,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -603,125 +613,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1065,7 +956,7 @@
       <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1077,7 +968,7 @@
         <f>B2*1.2</f>
         <v>72</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1087,7 +978,7 @@
         <f t="shared" ref="B4:B21" si="0">B3*1.2</f>
         <v>86.399999999999991</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1097,7 +988,7 @@
         <f t="shared" si="0"/>
         <v>103.67999999999999</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1107,7 +998,7 @@
         <f t="shared" si="0"/>
         <v>124.41599999999998</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1117,7 +1008,7 @@
         <f t="shared" si="0"/>
         <v>149.29919999999998</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1127,7 +1018,7 @@
         <f t="shared" si="0"/>
         <v>179.15903999999998</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1137,7 +1028,7 @@
         <f t="shared" si="0"/>
         <v>214.99084799999997</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="33"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1147,7 +1038,7 @@
         <f t="shared" si="0"/>
         <v>257.98901759999995</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="33"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1157,7 +1048,7 @@
         <f t="shared" si="0"/>
         <v>309.58682111999991</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1167,7 +1058,7 @@
         <f t="shared" si="0"/>
         <v>371.50418534399989</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="33"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1177,7 +1068,7 @@
         <f t="shared" si="0"/>
         <v>445.80502241279987</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1187,7 +1078,7 @@
         <f t="shared" si="0"/>
         <v>534.96602689535985</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="33"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1197,7 +1088,7 @@
         <f t="shared" si="0"/>
         <v>641.95923227443177</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="33"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1207,7 +1098,7 @@
         <f t="shared" si="0"/>
         <v>770.35107872931815</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1217,7 +1108,7 @@
         <f t="shared" si="0"/>
         <v>924.42129447518175</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="33"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1227,7 +1118,7 @@
         <f t="shared" si="0"/>
         <v>1109.3055533702181</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="33"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1237,7 +1128,7 @@
         <f t="shared" si="0"/>
         <v>1331.1666640442618</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1247,7 +1138,7 @@
         <f t="shared" si="0"/>
         <v>1597.3999968531141</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1257,7 +1148,7 @@
         <f t="shared" si="0"/>
         <v>1916.8799962237367</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1267,7 +1158,7 @@
         <f>B21*1.3</f>
         <v>2491.9439950908577</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1279,7 +1170,7 @@
         <f t="shared" ref="B23:B36" si="1">B22*1.5</f>
         <v>3737.9159926362863</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="33"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1289,7 +1180,7 @@
         <f t="shared" si="1"/>
         <v>5606.8739889544295</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="33"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1299,7 +1190,7 @@
         <f t="shared" si="1"/>
         <v>8410.3109834316438</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1309,7 +1200,7 @@
         <f t="shared" si="1"/>
         <v>12615.466475147467</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="33"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1319,7 +1210,7 @@
         <f t="shared" si="1"/>
         <v>18923.199712721202</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="33"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1329,7 +1220,7 @@
         <f t="shared" si="1"/>
         <v>28384.799569081802</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="33"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1339,7 +1230,7 @@
         <f t="shared" si="1"/>
         <v>42577.199353622702</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="33"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1349,7 +1240,7 @@
         <f t="shared" si="1"/>
         <v>63865.799030434049</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1359,7 +1250,7 @@
         <f t="shared" si="1"/>
         <v>95798.698545651074</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="33"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1369,7 +1260,7 @@
         <f t="shared" si="1"/>
         <v>143698.04781847663</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="33"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1379,7 +1270,7 @@
         <f t="shared" si="1"/>
         <v>215547.07172771494</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="33"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1389,7 +1280,7 @@
         <f t="shared" si="1"/>
         <v>323320.60759157239</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="33"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1399,7 +1290,7 @@
         <f t="shared" si="1"/>
         <v>484980.91138735856</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="33"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1409,7 +1300,7 @@
         <f t="shared" si="1"/>
         <v>727471.36708103784</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1456,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A59586-0C0B-4140-93D4-3BF2EBFC0FC3}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,1472 +1369,1476 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="H1" s="27" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="H1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="O1" s="28" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="O1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="V1" s="29" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="V1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="43">
         <v>10</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="44">
         <f>IF(F3=$A$31,C3/$B$31,IF(F3=$A$32,C3/$B$32,IF(F3=$A$33,C3/$B$33,IF(F3=$A$34,C3/$B$34))))</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="45">
         <v>3</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="F3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="27">
         <v>150</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="30">
         <f>IF(M3=$A$31,J3/$B$31,IF(M3=$A$32,J3/$B$32,IF(M3=$A$33,J3/$B$33,IF(M3=$A$34,J3/$B$34))))</f>
         <v>25</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="8">
         <v>3</v>
       </c>
-      <c r="M3" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="14">
+      <c r="M3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="10">
         <v>61</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="36">
+      <c r="Q3" s="26">
         <v>180</v>
       </c>
-      <c r="R3" s="44">
+      <c r="R3" s="31">
         <f>IF(T3=$A$31,Q3/$B$31,IF(T3=$A$32,Q3/$B$32,IF(T3=$A$33,Q3/$B$33,IF(T3=$A$34,Q3/$B$34))))</f>
         <v>30</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="12">
         <v>5</v>
       </c>
-      <c r="T3" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="19">
+      <c r="T3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="15">
         <v>91</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="17">
         <v>230</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="18">
         <v>0</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="Z3" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="43">
         <f>IF(F4=$A$26,C3*$B$26,IF(F4=$A$27,C3*$B$27,IF(F4=$A$28,C3*$B$28,IF(F4=$A$29,C3*$B$29))))</f>
         <v>20</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <f t="shared" ref="D4:D20" si="0">IF(F4=$A$31,C4/$B$31,IF(F4=$A$32,C4/$B$32,IF(F4=$A$33,C4/$B$33,IF(F4=$A$34,C4/$B$34))))</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="45">
         <f>E3+E3</f>
         <v>6</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="F4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="6">
         <v>31</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="27">
         <f>IF(M4=$A$26,J3*$B$26,IF(M4=$A$27,J3*$B$27,IF(M4=$A$28,J3*$B$28,IF(M4=$A$29,J3*$B$29))))</f>
         <v>300</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="30">
         <f t="shared" ref="K4:K20" si="1">IF(M4=$A$31,J4/$B$31,IF(M4=$A$32,J4/$B$32,IF(M4=$A$33,J4/$B$33,IF(M4=$A$34,J4/$B$34))))</f>
         <v>50</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="8">
         <f>L3+(L3*2)</f>
         <v>9</v>
       </c>
-      <c r="M4" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="14">
+      <c r="M4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="10">
         <v>62</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="26">
         <f>IF(T4=$A$26,Q3*$B$26,IF(T4=$A$27,Q3*$B$27,IF(T4=$A$28,Q3*$B$28,IF(T4=$A$29,Q3*$B$29))))</f>
         <v>360</v>
       </c>
-      <c r="R4" s="44">
+      <c r="R4" s="31">
         <f t="shared" ref="R4:R20" si="2">IF(T4=$A$31,Q4/$B$31,IF(T4=$A$32,Q4/$B$32,IF(T4=$A$33,Q4/$B$33,IF(T4=$A$34,Q4/$B$34))))</f>
         <v>60</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="12">
         <f>S3+S3</f>
         <v>10</v>
       </c>
-      <c r="T4" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="19">
+      <c r="T4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="15">
         <v>92</v>
       </c>
-      <c r="W4" s="20"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="21"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="43">
         <f t="shared" ref="C5:C20" si="3">IF(F5=$A$26,C4*$B$26,IF(F5=$A$27,C4*$B$27,IF(F5=$A$28,C4*$B$28,IF(F5=$A$29,C4*$B$29))))</f>
         <v>60</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="45">
         <f>E4+E4</f>
         <v>12</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="6">
         <v>32</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="27">
         <f t="shared" ref="J5:J20" si="4">IF(M5=$A$26,J4*$B$26,IF(M5=$A$27,J4*$B$27,IF(M5=$A$28,J4*$B$28,IF(M5=$A$29,J4*$B$29))))</f>
         <v>600</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="30">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="8">
         <f>L4+L4</f>
         <v>18</v>
       </c>
-      <c r="M5" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="14">
+      <c r="M5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="10">
         <v>63</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="26">
         <f t="shared" ref="Q5:Q20" si="5">IF(T5=$A$26,Q4*$B$26,IF(T5=$A$27,Q4*$B$27,IF(T5=$A$28,Q4*$B$28,IF(T5=$A$29,Q4*$B$29))))</f>
         <v>720</v>
       </c>
-      <c r="R5" s="44">
+      <c r="R5" s="31">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="12">
         <f>S4+S4</f>
         <v>20</v>
       </c>
-      <c r="T5" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="19">
+      <c r="T5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="15">
         <v>93</v>
       </c>
-      <c r="W5" s="20"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="21"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="43">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="45">
         <f>E5+E5</f>
         <v>24</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>33</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="27">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="30">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <f>L5+L5</f>
         <v>36</v>
       </c>
-      <c r="M6" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="14">
+      <c r="M6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="10">
         <v>64</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="26">
         <f t="shared" si="5"/>
         <v>1440</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="31">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="12">
         <f>S5+S5</f>
         <v>40</v>
       </c>
-      <c r="T6" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="V6" s="19">
+      <c r="T6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" s="15">
         <v>94</v>
       </c>
-      <c r="W6" s="20"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="21"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="43">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="45">
         <f>E6+60</f>
         <v>84</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="F7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="6">
         <v>34</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="27">
         <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="30">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="8">
         <f>L6+L6</f>
         <v>72</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="10">
         <v>65</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="26">
         <f t="shared" si="5"/>
         <v>2880</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="31">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="12">
         <f>S6+S6</f>
         <v>80</v>
       </c>
-      <c r="T7" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="19">
+      <c r="T7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="15">
         <v>95</v>
       </c>
-      <c r="W7" s="20"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="21"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="43">
         <f t="shared" si="3"/>
         <v>1080</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="45">
         <f>E7+E7</f>
         <v>168</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="6">
         <v>35</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="27">
         <f t="shared" si="4"/>
         <v>10800</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="30">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="8">
         <v>140</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="10">
         <v>66</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="26">
         <f t="shared" si="5"/>
         <v>8640</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="31">
         <f t="shared" si="2"/>
         <v>1440</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="12">
         <f>S7+S7</f>
         <v>160</v>
       </c>
-      <c r="T8" s="31" t="s">
+      <c r="T8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="15">
         <v>96</v>
       </c>
-      <c r="W8" s="20"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="21"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="43">
         <f t="shared" si="3"/>
         <v>2160</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="46">
         <f>E8+E8</f>
         <v>336</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="F9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="6">
         <v>36</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="27">
         <f t="shared" si="4"/>
         <v>21600</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="30">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="8">
         <f>L8+60</f>
         <v>200</v>
       </c>
       <c r="M9" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="10">
         <v>67</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="26">
         <f t="shared" si="5"/>
         <v>17280</v>
       </c>
-      <c r="R9" s="44">
+      <c r="R9" s="31">
         <f t="shared" si="2"/>
         <v>2880</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="13">
         <f>S5+S5</f>
         <v>40</v>
       </c>
       <c r="T9" t="s">
         <v>55</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="15">
         <v>97</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="23"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="43">
         <f t="shared" si="3"/>
         <v>4320</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="46">
         <f>E9+60</f>
         <v>396</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="F10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="6">
         <v>37</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="27">
         <f t="shared" si="4"/>
         <v>64800</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="30">
         <f t="shared" si="1"/>
         <v>10800</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="8">
         <f t="shared" ref="L10:L20" si="6">L9+60</f>
         <v>260</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="10">
         <v>68</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="26">
         <f t="shared" si="5"/>
         <v>34560</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="31">
         <f t="shared" si="2"/>
         <v>5760</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="13">
         <f>S8+S8</f>
         <v>320</v>
       </c>
-      <c r="T10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="V10" s="19">
+      <c r="T10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" s="15">
         <v>98</v>
       </c>
-      <c r="W10" s="19"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="23"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="43">
         <f t="shared" si="3"/>
         <v>12960</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>2160</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="46">
         <f t="shared" ref="E11:E20" si="7">E10+60</f>
         <v>456</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="6">
         <v>38</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="27">
         <f t="shared" si="4"/>
         <v>194400</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="30">
         <f t="shared" si="1"/>
         <v>32400</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="8">
         <f t="shared" si="6"/>
         <v>320</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="10">
         <v>69</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="26">
         <f t="shared" si="5"/>
         <v>103680</v>
       </c>
-      <c r="R11" s="44">
+      <c r="R11" s="31">
         <f t="shared" si="2"/>
         <v>17280</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="13">
         <f>S10+60</f>
         <v>380</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="15">
         <v>99</v>
       </c>
-      <c r="W11" s="19"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="23"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="19"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="43">
         <f t="shared" si="3"/>
         <v>38880</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <f t="shared" si="0"/>
         <v>6480</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="46">
         <f t="shared" si="7"/>
         <v>516</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="6">
         <v>39</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="27">
         <f t="shared" si="4"/>
         <v>388800</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="30">
         <f t="shared" si="1"/>
         <v>64800</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="8">
         <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="M12" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="10">
         <v>70</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="26">
         <f t="shared" si="5"/>
         <v>207360</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="31">
         <f t="shared" si="2"/>
         <v>34560</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="13">
         <f t="shared" ref="S12:S20" si="8">S11+60</f>
         <v>440</v>
       </c>
       <c r="T12" t="s">
         <v>55</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12" s="15">
         <v>100</v>
       </c>
-      <c r="W12" s="19"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="23"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="43">
         <f t="shared" si="3"/>
         <v>194400</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <f t="shared" si="0"/>
         <v>38880</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="46">
         <f t="shared" si="7"/>
         <v>576</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="6">
         <v>40</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="37">
+      <c r="I13" s="6"/>
+      <c r="J13" s="27">
         <f t="shared" si="4"/>
         <v>777600</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="30">
         <f>IF(M13=$A$31,J13/$B$31,IF(M13=$A$32,J13/$B$32,IF(M13=$A$33,J13/$B$33,IF(M13=$A$34,J13/$B$34))))</f>
         <v>129600</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="8">
         <f t="shared" si="6"/>
         <v>440</v>
       </c>
-      <c r="M13" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="14">
+      <c r="M13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="10">
         <v>71</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="26">
         <f t="shared" si="5"/>
         <v>1036800</v>
       </c>
-      <c r="R13" s="44">
+      <c r="R13" s="31">
         <f t="shared" si="2"/>
         <v>207360</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="13">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="T13" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="19">
+      <c r="V13" s="15">
         <v>101</v>
       </c>
-      <c r="W13" s="19"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="23"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="43">
         <f t="shared" si="3"/>
         <v>388800</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <f t="shared" si="0"/>
         <v>64800</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="46">
         <f t="shared" si="7"/>
         <v>636</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="F14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="6">
         <v>41</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="37">
+      <c r="I14" s="6"/>
+      <c r="J14" s="27">
         <f t="shared" si="4"/>
         <v>1555200</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="30">
         <f t="shared" si="1"/>
         <v>259200</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="8">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="M14" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="14">
+      <c r="M14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="10">
         <v>72</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="26">
         <f t="shared" si="5"/>
         <v>2073600</v>
       </c>
-      <c r="R14" s="44">
+      <c r="R14" s="31">
         <f t="shared" si="2"/>
         <v>345600</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="13">
         <f t="shared" si="8"/>
         <v>560</v>
       </c>
       <c r="T14" t="s">
         <v>55</v>
       </c>
-      <c r="V14" s="19">
+      <c r="V14" s="15">
         <v>102</v>
       </c>
-      <c r="W14" s="19"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="23"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="43">
         <f t="shared" si="3"/>
         <v>777600</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="44">
         <f t="shared" si="0"/>
         <v>129600</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="46">
         <f t="shared" si="7"/>
         <v>696</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="F15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="6">
         <v>42</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="37">
+      <c r="I15" s="6"/>
+      <c r="J15" s="27">
         <f t="shared" si="4"/>
         <v>3110400</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="30">
         <f t="shared" si="1"/>
         <v>518400</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="8">
         <f t="shared" si="6"/>
         <v>560</v>
       </c>
-      <c r="M15" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="M15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="10">
         <v>73</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="26">
         <f t="shared" si="5"/>
         <v>14515200</v>
       </c>
-      <c r="R15" s="44">
+      <c r="R15" s="31">
         <f t="shared" si="2"/>
         <v>3628800</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="13">
         <f t="shared" si="8"/>
         <v>620</v>
       </c>
       <c r="T15" t="s">
         <v>58</v>
       </c>
-      <c r="V15" s="19">
+      <c r="V15" s="15">
         <v>103</v>
       </c>
-      <c r="W15" s="19"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="23"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="43">
         <f t="shared" si="3"/>
         <v>1555200</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="44">
         <f t="shared" si="0"/>
         <v>259200</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="46">
         <f t="shared" si="7"/>
         <v>756</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="F16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="6">
         <v>43</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="37">
+      <c r="I16" s="6"/>
+      <c r="J16" s="27">
         <f t="shared" si="4"/>
         <v>6220800</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="30">
         <f t="shared" si="1"/>
         <v>1036800</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="8">
         <f t="shared" si="6"/>
         <v>620</v>
       </c>
-      <c r="M16" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O16" s="14">
+      <c r="M16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="10">
         <v>74</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="26">
         <f t="shared" si="5"/>
         <v>101606400</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="31">
         <f t="shared" si="2"/>
         <v>25401600</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="13">
         <f t="shared" si="8"/>
         <v>680</v>
       </c>
       <c r="T16" t="s">
         <v>58</v>
       </c>
-      <c r="V16" s="19">
+      <c r="V16" s="15">
         <v>104</v>
       </c>
-      <c r="W16" s="19"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="23"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="43">
         <f t="shared" si="3"/>
         <v>3110400</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="44">
         <f t="shared" si="0"/>
         <v>518400</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="46">
         <f t="shared" si="7"/>
         <v>816</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="F17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="6">
         <v>44</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="37">
+      <c r="I17" s="6"/>
+      <c r="J17" s="27">
         <f t="shared" si="4"/>
         <v>12441600</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="30">
         <f t="shared" si="1"/>
         <v>2073600</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="8">
         <f t="shared" si="6"/>
         <v>680</v>
       </c>
-      <c r="M17" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O17" s="14">
+      <c r="M17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="10">
         <v>75</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="26">
         <f t="shared" si="5"/>
         <v>203212800</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="31">
         <f t="shared" si="2"/>
         <v>33868800</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="13">
         <f t="shared" si="8"/>
         <v>740</v>
       </c>
       <c r="T17" t="s">
         <v>55</v>
       </c>
-      <c r="V17" s="19">
+      <c r="V17" s="15">
         <v>105</v>
       </c>
-      <c r="W17" s="19"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="23"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="41">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="43">
         <f t="shared" si="3"/>
         <v>6220800</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="44">
         <f t="shared" si="0"/>
         <v>1036800</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="46">
         <f t="shared" si="7"/>
         <v>876</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="F18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="6">
         <v>45</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="37">
+      <c r="I18" s="6"/>
+      <c r="J18" s="27">
         <f t="shared" si="4"/>
         <v>24883200</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="30">
         <f t="shared" si="1"/>
         <v>4147200</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="8">
         <f t="shared" si="6"/>
         <v>740</v>
       </c>
-      <c r="M18" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O18" s="14">
+      <c r="M18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="10">
         <v>76</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="26">
         <f t="shared" si="5"/>
         <v>1016064000</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="31">
         <f t="shared" si="2"/>
         <v>203212800</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="13">
         <f t="shared" si="8"/>
         <v>800</v>
       </c>
       <c r="T18" t="s">
         <v>57</v>
       </c>
-      <c r="V18" s="19">
+      <c r="V18" s="15">
         <v>106</v>
       </c>
-      <c r="W18" s="19"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="23"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="41">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="43">
         <f t="shared" si="3"/>
         <v>12441600</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="44">
         <f t="shared" si="0"/>
         <v>2073600</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="46">
         <f t="shared" si="7"/>
         <v>936</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="F19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="6">
         <v>46</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="37">
+      <c r="I19" s="6"/>
+      <c r="J19" s="27">
         <f t="shared" si="4"/>
         <v>49766400</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="30">
         <f t="shared" si="1"/>
         <v>8294400</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="8">
         <f t="shared" si="6"/>
         <v>800</v>
       </c>
-      <c r="M19" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="14">
+      <c r="M19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="10">
         <v>77</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="26">
         <f t="shared" si="5"/>
         <v>2032128000</v>
       </c>
-      <c r="R19" s="44">
+      <c r="R19" s="31">
         <f t="shared" si="2"/>
         <v>338688000</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="13">
         <f t="shared" si="8"/>
         <v>860</v>
       </c>
       <c r="T19" t="s">
         <v>55</v>
       </c>
-      <c r="V19" s="19">
+      <c r="V19" s="15">
         <v>107</v>
       </c>
-      <c r="W19" s="19"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="23"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="41">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="43">
         <f t="shared" si="3"/>
         <v>24883200</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="44">
         <f t="shared" si="0"/>
         <v>4147200</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="46">
         <f t="shared" si="7"/>
         <v>996</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="F20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="6">
         <v>47</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="37">
+      <c r="I20" s="6"/>
+      <c r="J20" s="27">
         <f t="shared" si="4"/>
         <v>99532800</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="30">
         <f t="shared" si="1"/>
         <v>16588800</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="8">
         <f t="shared" si="6"/>
         <v>860</v>
       </c>
-      <c r="M20" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O20" s="14">
+      <c r="M20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="10">
         <v>78</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Q20" s="36">
+      <c r="Q20" s="26">
         <f t="shared" si="5"/>
         <v>14224896000</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="31">
         <f t="shared" si="2"/>
         <v>3556224000</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="13">
         <f t="shared" si="8"/>
         <v>920</v>
       </c>
       <c r="T20" t="s">
         <v>58</v>
       </c>
-      <c r="V20" s="19">
+      <c r="V20" s="15">
         <v>108</v>
       </c>
-      <c r="W20" s="19"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="23"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="19"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E22" s="35">
+      <c r="E22" s="25">
         <f>E20/60</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="24">
         <f>L20/60</f>
         <v>14.333333333333334</v>
       </c>
+      <c r="S22" s="47">
+        <f>S20/60</f>
+        <v>15.333333333333334</v>
+      </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="38"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="39">
+      <c r="A26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="28">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="34"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="42">
+      <c r="A31" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="29">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="29">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="29">
         <v>4</v>
       </c>
     </row>
@@ -2957,16 +2852,16 @@
     <mergeCell ref="A24:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="T3:T20">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Lendário">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Lendário">
       <formula>NOT(ISERROR(SEARCH("Lendário",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Epico">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Epico">
       <formula>NOT(ISERROR(SEARCH("Epico",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Raro">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Raro">
       <formula>NOT(ISERROR(SEARCH("Raro",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Comum">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="Comum">
       <formula>NOT(ISERROR(SEARCH("Comum",T3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/BaseCalculos.xlsx
+++ b/Assets/BaseCalculos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jogos Unity\StoneJungleCityV2\StoneJungleCity\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D061DB45-56E1-41F9-B64E-0CBC5AD24259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA93536-FC3F-4F72-B8D5-BD40187917EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
+    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390" tabRatio="599" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo Level por XP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
   <si>
     <t>Level</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Cálculo de Valor de Produção</t>
+  </si>
+  <si>
+    <t>Estádio GP</t>
   </si>
 </sst>
 </file>
@@ -344,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -394,13 +397,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -480,12 +494,39 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,32 +539,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -956,7 +973,7 @@
       <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
     </row>
@@ -968,7 +985,7 @@
         <f>B2*1.2</f>
         <v>72</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -978,7 +995,7 @@
         <f t="shared" ref="B4:B21" si="0">B3*1.2</f>
         <v>86.399999999999991</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -988,7 +1005,7 @@
         <f t="shared" si="0"/>
         <v>103.67999999999999</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -998,7 +1015,7 @@
         <f t="shared" si="0"/>
         <v>124.41599999999998</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1008,7 +1025,7 @@
         <f t="shared" si="0"/>
         <v>149.29919999999998</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1018,7 +1035,7 @@
         <f t="shared" si="0"/>
         <v>179.15903999999998</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="41"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1028,7 +1045,7 @@
         <f t="shared" si="0"/>
         <v>214.99084799999997</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="41"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1038,7 +1055,7 @@
         <f t="shared" si="0"/>
         <v>257.98901759999995</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="41"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1048,7 +1065,7 @@
         <f t="shared" si="0"/>
         <v>309.58682111999991</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1058,7 +1075,7 @@
         <f t="shared" si="0"/>
         <v>371.50418534399989</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1068,7 +1085,7 @@
         <f t="shared" si="0"/>
         <v>445.80502241279987</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1078,7 +1095,7 @@
         <f t="shared" si="0"/>
         <v>534.96602689535985</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="41"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1088,7 +1105,7 @@
         <f t="shared" si="0"/>
         <v>641.95923227443177</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1098,7 +1115,7 @@
         <f t="shared" si="0"/>
         <v>770.35107872931815</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1108,7 +1125,7 @@
         <f t="shared" si="0"/>
         <v>924.42129447518175</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1118,7 +1135,7 @@
         <f t="shared" si="0"/>
         <v>1109.3055533702181</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1128,7 +1145,7 @@
         <f t="shared" si="0"/>
         <v>1331.1666640442618</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1138,7 +1155,7 @@
         <f t="shared" si="0"/>
         <v>1597.3999968531141</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="41"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1148,7 +1165,7 @@
         <f t="shared" si="0"/>
         <v>1916.8799962237367</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="41"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1158,7 +1175,7 @@
         <f>B21*1.3</f>
         <v>2491.9439950908577</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1170,7 +1187,7 @@
         <f t="shared" ref="B23:B36" si="1">B22*1.5</f>
         <v>3737.9159926362863</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1180,7 +1197,7 @@
         <f t="shared" si="1"/>
         <v>5606.8739889544295</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1190,7 +1207,7 @@
         <f t="shared" si="1"/>
         <v>8410.3109834316438</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1200,7 +1217,7 @@
         <f t="shared" si="1"/>
         <v>12615.466475147467</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1210,7 +1227,7 @@
         <f t="shared" si="1"/>
         <v>18923.199712721202</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1220,7 +1237,7 @@
         <f t="shared" si="1"/>
         <v>28384.799569081802</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="41"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1230,7 +1247,7 @@
         <f t="shared" si="1"/>
         <v>42577.199353622702</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="41"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1240,7 +1257,7 @@
         <f t="shared" si="1"/>
         <v>63865.799030434049</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="41"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1250,7 +1267,7 @@
         <f t="shared" si="1"/>
         <v>95798.698545651074</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="41"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1260,7 +1277,7 @@
         <f t="shared" si="1"/>
         <v>143698.04781847663</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="41"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1270,7 +1287,7 @@
         <f t="shared" si="1"/>
         <v>215547.07172771494</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="41"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1280,7 +1297,7 @@
         <f t="shared" si="1"/>
         <v>323320.60759157239</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="41"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1290,7 +1307,7 @@
         <f t="shared" si="1"/>
         <v>484980.91138735856</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="41"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1300,7 +1317,7 @@
         <f t="shared" si="1"/>
         <v>727471.36708103784</v>
       </c>
-      <c r="C36" s="33"/>
+      <c r="C36" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1347,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A59586-0C0B-4140-93D4-3BF2EBFC0FC3}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,49 +1386,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="H1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="O1" s="36" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="O1" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="V1" s="37" t="s">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="V1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="32" t="s">
@@ -1464,20 +1481,20 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="34">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="36">
         <v>10</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="37">
         <f>IF(F3=$A$31,C3/$B$31,IF(F3=$A$32,C3/$B$32,IF(F3=$A$33,C3/$B$33,IF(F3=$A$34,C3/$B$34))))</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="38">
         <v>3</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -1538,21 +1555,21 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="36">
         <f>IF(F4=$A$26,C3*$B$26,IF(F4=$A$27,C3*$B$27,IF(F4=$A$28,C3*$B$28,IF(F4=$A$29,C3*$B$29))))</f>
         <v>20</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="37">
         <f t="shared" ref="D4:D20" si="0">IF(F4=$A$31,C4/$B$31,IF(F4=$A$32,C4/$B$32,IF(F4=$A$33,C4/$B$33,IF(F4=$A$34,C4/$B$34))))</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="38">
         <f>E3+E3</f>
         <v>6</v>
       </c>
@@ -1610,21 +1627,21 @@
       <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="34">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="36">
         <f t="shared" ref="C5:C20" si="3">IF(F5=$A$26,C4*$B$26,IF(F5=$A$27,C4*$B$27,IF(F5=$A$28,C4*$B$28,IF(F5=$A$29,C4*$B$29))))</f>
         <v>60</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="37">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="38">
         <f>E4+E4</f>
         <v>12</v>
       </c>
@@ -1682,21 +1699,21 @@
       <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="34">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="36">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="37">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="38">
         <f>E5+E5</f>
         <v>24</v>
       </c>
@@ -1754,21 +1771,21 @@
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="34">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="36">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="37">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="38">
         <f>E6+60</f>
         <v>84</v>
       </c>
@@ -1826,21 +1843,21 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="36">
         <f t="shared" si="3"/>
         <v>1080</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="37">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="38">
         <f>E7+E7</f>
         <v>168</v>
       </c>
@@ -1897,21 +1914,21 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="34">
         <v>7</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="36">
         <f t="shared" si="3"/>
         <v>2160</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="37">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="39">
         <f>E8+E8</f>
         <v>336</v>
       </c>
@@ -1969,21 +1986,21 @@
       <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="34">
         <v>8</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="36">
         <f t="shared" si="3"/>
         <v>4320</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="37">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="39">
         <f>E9+60</f>
         <v>396</v>
       </c>
@@ -2041,21 +2058,21 @@
       <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+      <c r="A11" s="34">
         <v>9</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="36">
         <f t="shared" si="3"/>
         <v>12960</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="37">
         <f t="shared" si="0"/>
         <v>2160</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="39">
         <f t="shared" ref="E11:E20" si="7">E10+60</f>
         <v>456</v>
       </c>
@@ -2113,21 +2130,21 @@
       <c r="Z11" s="19"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="34">
         <v>10</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="36">
         <f t="shared" si="3"/>
         <v>38880</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="37">
         <f t="shared" si="0"/>
         <v>6480</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="39">
         <f t="shared" si="7"/>
         <v>516</v>
       </c>
@@ -2170,7 +2187,7 @@
         <v>34560</v>
       </c>
       <c r="S12" s="13">
-        <f t="shared" ref="S12:S20" si="8">S11+60</f>
+        <f t="shared" ref="S12:S21" si="8">S11+60</f>
         <v>440</v>
       </c>
       <c r="T12" t="s">
@@ -2185,21 +2202,21 @@
       <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+      <c r="A13" s="34">
         <v>11</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="36">
         <f t="shared" si="3"/>
         <v>194400</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="37">
         <f t="shared" si="0"/>
         <v>38880</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="39">
         <f t="shared" si="7"/>
         <v>576</v>
       </c>
@@ -2255,21 +2272,21 @@
       <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+      <c r="A14" s="34">
         <v>12</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="36">
         <f t="shared" si="3"/>
         <v>388800</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="37">
         <f t="shared" si="0"/>
         <v>64800</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="39">
         <f t="shared" si="7"/>
         <v>636</v>
       </c>
@@ -2325,21 +2342,21 @@
       <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="34">
         <v>13</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="36">
         <f t="shared" si="3"/>
         <v>777600</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="37">
         <f t="shared" si="0"/>
         <v>129600</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="39">
         <f t="shared" si="7"/>
         <v>696</v>
       </c>
@@ -2395,21 +2412,21 @@
       <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="36">
         <f t="shared" si="3"/>
         <v>1555200</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="37">
         <f t="shared" si="0"/>
         <v>259200</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="39">
         <f t="shared" si="7"/>
         <v>756</v>
       </c>
@@ -2465,21 +2482,21 @@
       <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
+      <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="36">
         <f t="shared" si="3"/>
         <v>3110400</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="37">
         <f t="shared" si="0"/>
         <v>518400</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="39">
         <f t="shared" si="7"/>
         <v>816</v>
       </c>
@@ -2535,21 +2552,21 @@
       <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="34">
         <v>16</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="36">
         <f t="shared" si="3"/>
         <v>6220800</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="37">
         <f t="shared" si="0"/>
         <v>1036800</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="39">
         <f t="shared" si="7"/>
         <v>876</v>
       </c>
@@ -2605,21 +2622,21 @@
       <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
+      <c r="A19" s="34">
         <v>17</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="36">
         <f t="shared" si="3"/>
         <v>12441600</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="37">
         <f t="shared" si="0"/>
         <v>2073600</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="39">
         <f t="shared" si="7"/>
         <v>936</v>
       </c>
@@ -2675,21 +2692,21 @@
       <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+      <c r="A20" s="34">
         <v>18</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="36">
         <f t="shared" si="3"/>
         <v>24883200</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="37">
         <f t="shared" si="0"/>
         <v>4147200</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="39">
         <f t="shared" si="7"/>
         <v>996</v>
       </c>
@@ -2744,6 +2761,29 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="19"/>
     </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O21" s="48">
+        <v>79</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="26">
+        <f t="shared" ref="Q21" si="9">IF(T21=$A$26,Q20*$B$26,IF(T21=$A$27,Q20*$B$27,IF(T21=$A$28,Q20*$B$28,IF(T21=$A$29,Q20*$B$29))))</f>
+        <v>99574272000</v>
+      </c>
+      <c r="R21" s="31">
+        <f t="shared" ref="R21" si="10">IF(T21=$A$31,Q21/$B$31,IF(T21=$A$32,Q21/$B$32,IF(T21=$A$33,Q21/$B$33,IF(T21=$A$34,Q21/$B$34))))</f>
+        <v>24893568000</v>
+      </c>
+      <c r="S21" s="13">
+        <f t="shared" si="8"/>
+        <v>980</v>
+      </c>
+      <c r="T21" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E22" s="25">
         <f>E20/60</f>
@@ -2753,16 +2793,16 @@
         <f>L20/60</f>
         <v>14.333333333333334</v>
       </c>
-      <c r="S22" s="47">
-        <f>S20/60</f>
-        <v>15.333333333333334</v>
+      <c r="S22" s="40">
+        <f>S21/60</f>
+        <v>16.333333333333332</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="47"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
@@ -2805,10 +2845,10 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="42"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
@@ -2851,7 +2891,7 @@
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="A24:B24"/>
   </mergeCells>
-  <conditionalFormatting sqref="T3:T20">
+  <conditionalFormatting sqref="T3:T21">
     <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Lendário">
       <formula>NOT(ISERROR(SEARCH("Lendário",T3)))</formula>
     </cfRule>

--- a/Assets/BaseCalculos.xlsx
+++ b/Assets/BaseCalculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jogos Unity\StoneJungleCityV2\StoneJungleCity\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA93536-FC3F-4F72-B8D5-BD40187917EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA65E59-9055-4AB2-8A13-75056F6D90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390" tabRatio="599" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
+    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390" tabRatio="599" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo Level por XP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="65">
   <si>
     <t>Level</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Base de Cáculo até lvl 20 Valor mais 1,2</t>
   </si>
   <si>
-    <t>Base de Cálculo até level 35, Valor mais 1,3</t>
-  </si>
-  <si>
     <t>Base Cálculo</t>
   </si>
   <si>
@@ -228,6 +225,12 @@
   </si>
   <si>
     <t>Estádio GP</t>
+  </si>
+  <si>
+    <t>Base de Cálculo até level 35, Valor mais 1,5</t>
+  </si>
+  <si>
+    <t>Base de Cálculo até level 35, Valor mais 1,8</t>
   </si>
 </sst>
 </file>
@@ -518,6 +521,9 @@
     <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -538,9 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -943,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536E43A4-27C6-497B-A988-1220CDE0A818}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,7 +976,7 @@
       <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
     </row>
@@ -985,7 +988,7 @@
         <f>B2*1.2</f>
         <v>72</v>
       </c>
-      <c r="C3" s="41"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -995,7 +998,7 @@
         <f t="shared" ref="B4:B21" si="0">B3*1.2</f>
         <v>86.399999999999991</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1005,7 +1008,7 @@
         <f t="shared" si="0"/>
         <v>103.67999999999999</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="42"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1015,7 +1018,7 @@
         <f t="shared" si="0"/>
         <v>124.41599999999998</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1025,7 +1028,7 @@
         <f t="shared" si="0"/>
         <v>149.29919999999998</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="42"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1035,7 +1038,7 @@
         <f t="shared" si="0"/>
         <v>179.15903999999998</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1045,7 +1048,7 @@
         <f t="shared" si="0"/>
         <v>214.99084799999997</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1055,7 +1058,7 @@
         <f t="shared" si="0"/>
         <v>257.98901759999995</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="42"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1065,7 +1068,7 @@
         <f t="shared" si="0"/>
         <v>309.58682111999991</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="42"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1075,7 +1078,7 @@
         <f t="shared" si="0"/>
         <v>371.50418534399989</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="42"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1085,7 +1088,7 @@
         <f t="shared" si="0"/>
         <v>445.80502241279987</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1095,7 +1098,7 @@
         <f t="shared" si="0"/>
         <v>534.96602689535985</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="42"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1105,7 +1108,7 @@
         <f t="shared" si="0"/>
         <v>641.95923227443177</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="42"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1115,7 +1118,7 @@
         <f t="shared" si="0"/>
         <v>770.35107872931815</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="42"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1125,7 +1128,7 @@
         <f t="shared" si="0"/>
         <v>924.42129447518175</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="42"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1135,7 +1138,7 @@
         <f t="shared" si="0"/>
         <v>1109.3055533702181</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1145,7 +1148,7 @@
         <f t="shared" si="0"/>
         <v>1331.1666640442618</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="42"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1155,7 +1158,7 @@
         <f t="shared" si="0"/>
         <v>1597.3999968531141</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="42"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1165,7 +1168,7 @@
         <f t="shared" si="0"/>
         <v>1916.8799962237367</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1175,8 +1178,8 @@
         <f>B21*1.3</f>
         <v>2491.9439950908577</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>3</v>
+      <c r="C22" s="42" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1184,10 +1187,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" ref="B23:B36" si="1">B22*1.5</f>
+        <f t="shared" ref="B23:B51" si="1">B22*1.5</f>
         <v>3737.9159926362863</v>
       </c>
-      <c r="C23" s="41"/>
+      <c r="C23" s="42"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1197,7 +1200,7 @@
         <f t="shared" si="1"/>
         <v>5606.8739889544295</v>
       </c>
-      <c r="C24" s="41"/>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1207,7 +1210,7 @@
         <f t="shared" si="1"/>
         <v>8410.3109834316438</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="42"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1217,7 +1220,7 @@
         <f t="shared" si="1"/>
         <v>12615.466475147467</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1227,7 +1230,7 @@
         <f t="shared" si="1"/>
         <v>18923.199712721202</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1237,7 +1240,7 @@
         <f t="shared" si="1"/>
         <v>28384.799569081802</v>
       </c>
-      <c r="C28" s="41"/>
+      <c r="C28" s="42"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1247,7 +1250,7 @@
         <f t="shared" si="1"/>
         <v>42577.199353622702</v>
       </c>
-      <c r="C29" s="41"/>
+      <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1257,7 +1260,7 @@
         <f t="shared" si="1"/>
         <v>63865.799030434049</v>
       </c>
-      <c r="C30" s="41"/>
+      <c r="C30" s="42"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1267,7 +1270,7 @@
         <f t="shared" si="1"/>
         <v>95798.698545651074</v>
       </c>
-      <c r="C31" s="41"/>
+      <c r="C31" s="42"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1277,7 +1280,7 @@
         <f t="shared" si="1"/>
         <v>143698.04781847663</v>
       </c>
-      <c r="C32" s="41"/>
+      <c r="C32" s="42"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1287,7 +1290,7 @@
         <f t="shared" si="1"/>
         <v>215547.07172771494</v>
       </c>
-      <c r="C33" s="41"/>
+      <c r="C33" s="42"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1297,7 +1300,7 @@
         <f t="shared" si="1"/>
         <v>323320.60759157239</v>
       </c>
-      <c r="C34" s="41"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1307,7 +1310,7 @@
         <f t="shared" si="1"/>
         <v>484980.91138735856</v>
       </c>
-      <c r="C35" s="41"/>
+      <c r="C35" s="42"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1317,14 +1320,167 @@
         <f t="shared" si="1"/>
         <v>727471.36708103784</v>
       </c>
-      <c r="C36" s="41"/>
+      <c r="C36" s="42"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <f>B36*1.8</f>
+        <v>1309448.460745868</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" ref="B38:B51" si="2">B37*1.8</f>
+        <v>2357007.2293425626</v>
+      </c>
+      <c r="C38" s="42"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="2"/>
+        <v>4242613.0128166126</v>
+      </c>
+      <c r="C39" s="42"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="2"/>
+        <v>7636703.4230699027</v>
+      </c>
+      <c r="C40" s="42"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="2"/>
+        <v>13746066.161525825</v>
+      </c>
+      <c r="C41" s="42"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="2"/>
+        <v>24742919.090746485</v>
+      </c>
+      <c r="C42" s="42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="2"/>
+        <v>44537254.363343671</v>
+      </c>
+      <c r="C43" s="42"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="2"/>
+        <v>80167057.854018614</v>
+      </c>
+      <c r="C44" s="42"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="2"/>
+        <v>144300704.1372335</v>
+      </c>
+      <c r="C45" s="42"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="2"/>
+        <v>259741267.44702029</v>
+      </c>
+      <c r="C46" s="42"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="2"/>
+        <v>467534281.40463656</v>
+      </c>
+      <c r="C47" s="42"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="2"/>
+        <v>841561706.52834582</v>
+      </c>
+      <c r="C48" s="42"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="2"/>
+        <v>1514811071.7510226</v>
+      </c>
+      <c r="C49" s="42"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="2"/>
+        <v>2726659929.1518407</v>
+      </c>
+      <c r="C50" s="42"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="2"/>
+        <v>4907987872.4733133</v>
+      </c>
+      <c r="C51" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:C21"/>
     <mergeCell ref="C22:C36"/>
+    <mergeCell ref="C37:C51"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:B36">
+  <conditionalFormatting sqref="B2:B51">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1352,7 +1508,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:B36</xm:sqref>
+          <xm:sqref>B2:B51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1364,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A59586-0C0B-4140-93D4-3BF2EBFC0FC3}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
@@ -1386,98 +1542,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="H1" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="O1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="H1" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="O1" s="45" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="V1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="V1" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="E2" s="33" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="O2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="V2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="X2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="Y2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1485,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="36">
         <v>10</v>
@@ -1498,13 +1654,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="27">
         <v>150</v>
@@ -1517,13 +1673,13 @@
         <v>3</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O3" s="10">
         <v>61</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="26">
         <v>180</v>
@@ -1536,13 +1692,13 @@
         <v>5</v>
       </c>
       <c r="T3" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V3" s="15">
         <v>91</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X3" s="17">
         <v>230</v>
@@ -1559,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="36">
         <f>IF(F4=$A$26,C3*$B$26,IF(F4=$A$27,C3*$B$27,IF(F4=$A$28,C3*$B$28,IF(F4=$A$29,C3*$B$29))))</f>
@@ -1574,13 +1730,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="6">
         <v>31</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="27">
         <f>IF(M4=$A$26,J3*$B$26,IF(M4=$A$27,J3*$B$27,IF(M4=$A$28,J3*$B$28,IF(M4=$A$29,J3*$B$29))))</f>
@@ -1595,13 +1751,13 @@
         <v>9</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" s="10">
         <v>62</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="26">
         <f>IF(T4=$A$26,Q3*$B$26,IF(T4=$A$27,Q3*$B$27,IF(T4=$A$28,Q3*$B$28,IF(T4=$A$29,Q3*$B$29))))</f>
@@ -1616,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="T4" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V4" s="15">
         <v>92</v>
@@ -1631,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="36">
         <f t="shared" ref="C5:C20" si="3">IF(F5=$A$26,C4*$B$26,IF(F5=$A$27,C4*$B$27,IF(F5=$A$28,C4*$B$28,IF(F5=$A$29,C4*$B$29))))</f>
@@ -1646,13 +1802,13 @@
         <v>12</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="6">
         <v>32</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="27">
         <f t="shared" ref="J5:J20" si="4">IF(M5=$A$26,J4*$B$26,IF(M5=$A$27,J4*$B$27,IF(M5=$A$28,J4*$B$28,IF(M5=$A$29,J4*$B$29))))</f>
@@ -1667,13 +1823,13 @@
         <v>18</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O5" s="10">
         <v>63</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="26">
         <f t="shared" ref="Q5:Q20" si="5">IF(T5=$A$26,Q4*$B$26,IF(T5=$A$27,Q4*$B$27,IF(T5=$A$28,Q4*$B$28,IF(T5=$A$29,Q4*$B$29))))</f>
@@ -1688,7 +1844,7 @@
         <v>20</v>
       </c>
       <c r="T5" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V5" s="15">
         <v>93</v>
@@ -1703,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="36">
         <f t="shared" si="3"/>
@@ -1718,13 +1874,13 @@
         <v>24</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="6">
         <v>33</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="27">
         <f t="shared" si="4"/>
@@ -1739,13 +1895,13 @@
         <v>36</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O6" s="10">
         <v>64</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="26">
         <f t="shared" si="5"/>
@@ -1760,7 +1916,7 @@
         <v>40</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V6" s="15">
         <v>94</v>
@@ -1775,7 +1931,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="36">
         <f t="shared" si="3"/>
@@ -1790,13 +1946,13 @@
         <v>84</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="6">
         <v>34</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="27">
         <f t="shared" si="4"/>
@@ -1811,13 +1967,13 @@
         <v>72</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O7" s="10">
         <v>65</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="26">
         <f t="shared" si="5"/>
@@ -1832,7 +1988,7 @@
         <v>80</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V7" s="15">
         <v>95</v>
@@ -1847,7 +2003,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="36">
         <f t="shared" si="3"/>
@@ -1862,13 +2018,13 @@
         <v>168</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="6">
         <v>35</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="27">
         <f t="shared" si="4"/>
@@ -1882,13 +2038,13 @@
         <v>140</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O8" s="10">
         <v>66</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="26">
         <f t="shared" si="5"/>
@@ -1903,7 +2059,7 @@
         <v>160</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" s="15">
         <v>96</v>
@@ -1918,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="36">
         <f t="shared" si="3"/>
@@ -1933,13 +2089,13 @@
         <v>336</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="6">
         <v>36</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="27">
         <f t="shared" si="4"/>
@@ -1954,13 +2110,13 @@
         <v>200</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O9" s="10">
         <v>67</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="26">
         <f t="shared" si="5"/>
@@ -1975,7 +2131,7 @@
         <v>40</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V9" s="15">
         <v>97</v>
@@ -1990,7 +2146,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="36">
         <f t="shared" si="3"/>
@@ -2005,13 +2161,13 @@
         <v>396</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="6">
         <v>37</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="27">
         <f t="shared" si="4"/>
@@ -2026,13 +2182,13 @@
         <v>260</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O10" s="10">
         <v>68</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="26">
         <f t="shared" si="5"/>
@@ -2047,7 +2203,7 @@
         <v>320</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V10" s="15">
         <v>98</v>
@@ -2062,7 +2218,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="36">
         <f t="shared" si="3"/>
@@ -2077,13 +2233,13 @@
         <v>456</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="6">
         <v>38</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="27">
         <f t="shared" si="4"/>
@@ -2098,13 +2254,13 @@
         <v>320</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O11" s="10">
         <v>69</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="26">
         <f t="shared" si="5"/>
@@ -2119,7 +2275,7 @@
         <v>380</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V11" s="15">
         <v>99</v>
@@ -2134,7 +2290,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="36">
         <f t="shared" si="3"/>
@@ -2149,13 +2305,13 @@
         <v>516</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="6">
         <v>39</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="27">
         <f t="shared" si="4"/>
@@ -2170,13 +2326,13 @@
         <v>380</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O12" s="10">
         <v>70</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="26">
         <f t="shared" si="5"/>
@@ -2191,7 +2347,7 @@
         <v>440</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V12" s="15">
         <v>100</v>
@@ -2206,7 +2362,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="36">
         <f t="shared" si="3"/>
@@ -2221,7 +2377,7 @@
         <v>576</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="6">
         <v>40</v>
@@ -2240,13 +2396,13 @@
         <v>440</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O13" s="10">
         <v>71</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="5"/>
@@ -2261,7 +2417,7 @@
         <v>500</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V13" s="15">
         <v>101</v>
@@ -2276,7 +2432,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="36">
         <f t="shared" si="3"/>
@@ -2291,7 +2447,7 @@
         <v>636</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="6">
         <v>41</v>
@@ -2310,13 +2466,13 @@
         <v>500</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O14" s="10">
         <v>72</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="26">
         <f t="shared" si="5"/>
@@ -2331,7 +2487,7 @@
         <v>560</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V14" s="15">
         <v>102</v>
@@ -2346,7 +2502,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="36">
         <f t="shared" si="3"/>
@@ -2361,7 +2517,7 @@
         <v>696</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="6">
         <v>42</v>
@@ -2380,13 +2536,13 @@
         <v>560</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O15" s="10">
         <v>73</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="26">
         <f t="shared" si="5"/>
@@ -2401,7 +2557,7 @@
         <v>620</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V15" s="15">
         <v>103</v>
@@ -2416,7 +2572,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="36">
         <f t="shared" si="3"/>
@@ -2431,7 +2587,7 @@
         <v>756</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="6">
         <v>43</v>
@@ -2450,13 +2606,13 @@
         <v>620</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O16" s="10">
         <v>74</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="26">
         <f t="shared" si="5"/>
@@ -2471,7 +2627,7 @@
         <v>680</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V16" s="15">
         <v>104</v>
@@ -2486,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="36">
         <f t="shared" si="3"/>
@@ -2501,7 +2657,7 @@
         <v>816</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="6">
         <v>44</v>
@@ -2520,13 +2676,13 @@
         <v>680</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="10">
         <v>75</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="26">
         <f t="shared" si="5"/>
@@ -2541,7 +2697,7 @@
         <v>740</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V17" s="15">
         <v>105</v>
@@ -2556,7 +2712,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="36">
         <f t="shared" si="3"/>
@@ -2571,7 +2727,7 @@
         <v>876</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="6">
         <v>45</v>
@@ -2590,13 +2746,13 @@
         <v>740</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="10">
         <v>76</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="26">
         <f t="shared" si="5"/>
@@ -2611,7 +2767,7 @@
         <v>800</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V18" s="15">
         <v>106</v>
@@ -2626,7 +2782,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="36">
         <f t="shared" si="3"/>
@@ -2641,7 +2797,7 @@
         <v>936</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="6">
         <v>46</v>
@@ -2660,13 +2816,13 @@
         <v>800</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="10">
         <v>77</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="26">
         <f t="shared" si="5"/>
@@ -2681,7 +2837,7 @@
         <v>860</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V19" s="15">
         <v>107</v>
@@ -2696,7 +2852,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="36">
         <f t="shared" si="3"/>
@@ -2711,7 +2867,7 @@
         <v>996</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="6">
         <v>47</v>
@@ -2730,13 +2886,13 @@
         <v>860</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O20" s="10">
         <v>78</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="26">
         <f t="shared" si="5"/>
@@ -2751,7 +2907,7 @@
         <v>920</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V20" s="15">
         <v>108</v>
@@ -2762,11 +2918,11 @@
       <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="O21" s="48">
+      <c r="O21" s="41">
         <v>79</v>
       </c>
-      <c r="P21" s="48" t="s">
-        <v>63</v>
+      <c r="P21" s="41" t="s">
+        <v>62</v>
       </c>
       <c r="Q21" s="26">
         <f t="shared" ref="Q21" si="9">IF(T21=$A$26,Q20*$B$26,IF(T21=$A$27,Q20*$B$27,IF(T21=$A$28,Q20*$B$28,IF(T21=$A$29,Q20*$B$29))))</f>
@@ -2781,7 +2937,7 @@
         <v>980</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -2799,22 +2955,22 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="47"/>
+      <c r="A24" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="48"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="28">
         <v>2</v>
@@ -2822,7 +2978,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="28">
         <v>3</v>
@@ -2830,7 +2986,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="28">
         <v>5</v>
@@ -2838,21 +2994,21 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="28">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="42"/>
+      <c r="A30" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="43"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="29">
         <v>6</v>
@@ -2860,7 +3016,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="29">
         <v>6</v>
@@ -2868,7 +3024,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="29">
         <v>5</v>
@@ -2876,7 +3032,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="29">
         <v>4</v>

--- a/Assets/BaseCalculos.xlsx
+++ b/Assets/BaseCalculos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jogos Unity\StoneJungleCityV2\StoneJungleCity\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\wkspaces\Stone Jungle City\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA65E59-9055-4AB2-8A13-75056F6D90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA71AB53-6823-4D4F-9081-38836A9B3637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390" tabRatio="599" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="599" activeTab="1" xr2:uid="{83CD1AD5-219E-4A39-8021-D8F43162BD44}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo Level por XP" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
   <si>
     <t>Level</t>
   </si>
@@ -231,6 +229,9 @@
   </si>
   <si>
     <t>Base de Cálculo até level 35, Valor mais 1,8</t>
+  </si>
+  <si>
+    <t>Construção</t>
   </si>
 </sst>
 </file>
@@ -242,7 +243,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +290,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -417,7 +427,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -544,6 +554,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -948,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536E43A4-27C6-497B-A988-1220CDE0A818}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B51"/>
     </sheetView>
   </sheetViews>
@@ -1187,7 +1200,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" ref="B23:B51" si="1">B22*1.5</f>
+        <f t="shared" ref="B23:B36" si="1">B22*1.5</f>
         <v>3737.9159926362863</v>
       </c>
       <c r="C23" s="42"/>
@@ -1518,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A59586-0C0B-4140-93D4-3BF2EBFC0FC3}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,19 +1542,23 @@
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>32</v>
       </c>
@@ -1549,29 +1566,33 @@
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
-      <c r="H1" s="45" t="s">
+      <c r="F1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="45"/>
       <c r="J1" s="45"/>
       <c r="K1" s="45"/>
       <c r="L1" s="45"/>
-      <c r="O1" s="46" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="Q1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
       <c r="R1" s="46"/>
       <c r="S1" s="46"/>
-      <c r="V1" s="47" t="s">
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="Y1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
       <c r="Z1" s="47"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -1582,61 +1603,73 @@
         <v>6</v>
       </c>
       <c r="D2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="H2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="Y2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="AA2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="AB2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AD2" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>1</v>
       </c>
@@ -1646,71 +1679,87 @@
       <c r="C3" s="36">
         <v>10</v>
       </c>
-      <c r="D3" s="37">
-        <f>IF(F3=$A$31,C3/$B$31,IF(F3=$A$32,C3/$B$32,IF(F3=$A$33,C3/$B$33,IF(F3=$A$34,C3/$B$34))))</f>
+      <c r="D3" s="36">
+        <f>C3/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E3" s="37">
+        <f>IF(G3=$A$31,C3/$B$31,IF(G3=$A$32,C3/$B$32,IF(G3=$A$33,C3/$B$33,IF(G3=$A$34,C3/$B$34))))</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E3" s="38">
+      <c r="F3" s="38">
         <v>3</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="27">
+      <c r="K3" s="27">
         <v>150</v>
       </c>
-      <c r="K3" s="30">
-        <f>IF(M3=$A$31,J3/$B$31,IF(M3=$A$32,J3/$B$32,IF(M3=$A$33,J3/$B$33,IF(M3=$A$34,J3/$B$34))))</f>
+      <c r="L3" s="27">
+        <f>K3/3</f>
+        <v>50</v>
+      </c>
+      <c r="M3" s="30">
+        <f>IF(O3=$A$31,K3/$B$31,IF(O3=$A$32,K3/$B$32,IF(O3=$A$33,K3/$B$33,IF(O3=$A$34,K3/$B$34))))</f>
         <v>25</v>
       </c>
-      <c r="L3" s="8">
+      <c r="N3" s="8">
         <v>3</v>
       </c>
-      <c r="M3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="10">
+      <c r="O3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="10">
         <v>61</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="S3" s="26">
         <v>180</v>
       </c>
-      <c r="R3" s="31">
-        <f>IF(T3=$A$31,Q3/$B$31,IF(T3=$A$32,Q3/$B$32,IF(T3=$A$33,Q3/$B$33,IF(T3=$A$34,Q3/$B$34))))</f>
+      <c r="T3" s="26">
+        <f>S3/3</f>
+        <v>60</v>
+      </c>
+      <c r="U3" s="31">
+        <f>IF(W3=$A$31,S3/$B$31,IF(W3=$A$32,S3/$B$32,IF(W3=$A$33,S3/$B$33,IF(W3=$A$34,S3/$B$34))))</f>
         <v>30</v>
       </c>
-      <c r="S3" s="12">
+      <c r="V3" s="12">
         <v>5</v>
       </c>
-      <c r="T3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" s="15">
+      <c r="W3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="15">
         <v>91</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="Z3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="17">
+      <c r="AA3" s="17">
         <v>230</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="AB3" s="17">
+        <f>AA3/3</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="AC3" s="18">
         <v>0</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="AD3" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>2</v>
       </c>
@@ -1718,71 +1767,84 @@
         <v>10</v>
       </c>
       <c r="C4" s="36">
-        <f>IF(F4=$A$26,C3*$B$26,IF(F4=$A$27,C3*$B$27,IF(F4=$A$28,C3*$B$28,IF(F4=$A$29,C3*$B$29))))</f>
+        <f>IF(G4=$A$26,C3*$B$26,IF(G4=$A$27,C3*$B$27,IF(G4=$A$28,C3*$B$28,IF(G4=$A$29,C3*$B$29))))</f>
         <v>20</v>
       </c>
-      <c r="D4" s="37">
-        <f t="shared" ref="D4:D20" si="0">IF(F4=$A$31,C4/$B$31,IF(F4=$A$32,C4/$B$32,IF(F4=$A$33,C4/$B$33,IF(F4=$A$34,C4/$B$34))))</f>
+      <c r="D4" s="36">
+        <f t="shared" ref="D4:D20" si="0">C4/3</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E4" s="37">
+        <f t="shared" ref="E4:E20" si="1">IF(G4=$A$31,C4/$B$31,IF(G4=$A$32,C4/$B$32,IF(G4=$A$33,C4/$B$33,IF(G4=$A$34,C4/$B$34))))</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="E4" s="38">
-        <f>E3+E3</f>
+      <c r="F4" s="38">
+        <f>F3+F3</f>
         <v>6</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="6">
         <v>31</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="27">
-        <f>IF(M4=$A$26,J3*$B$26,IF(M4=$A$27,J3*$B$27,IF(M4=$A$28,J3*$B$28,IF(M4=$A$29,J3*$B$29))))</f>
+      <c r="K4" s="27">
+        <f>IF(O4=$A$26,K3*$B$26,IF(O4=$A$27,K3*$B$27,IF(O4=$A$28,K3*$B$28,IF(O4=$A$29,K3*$B$29))))</f>
         <v>300</v>
       </c>
-      <c r="K4" s="30">
-        <f t="shared" ref="K4:K20" si="1">IF(M4=$A$31,J4/$B$31,IF(M4=$A$32,J4/$B$32,IF(M4=$A$33,J4/$B$33,IF(M4=$A$34,J4/$B$34))))</f>
+      <c r="L4" s="27">
+        <f t="shared" ref="L4:L20" si="2">K4/3</f>
+        <v>100</v>
+      </c>
+      <c r="M4" s="30">
+        <f t="shared" ref="M4:M20" si="3">IF(O4=$A$31,K4/$B$31,IF(O4=$A$32,K4/$B$32,IF(O4=$A$33,K4/$B$33,IF(O4=$A$34,K4/$B$34))))</f>
         <v>50</v>
       </c>
-      <c r="L4" s="8">
-        <f>L3+(L3*2)</f>
+      <c r="N4" s="8">
+        <f>N3+(N3*2)</f>
         <v>9</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="10">
+      <c r="O4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="10">
         <v>62</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="26">
-        <f>IF(T4=$A$26,Q3*$B$26,IF(T4=$A$27,Q3*$B$27,IF(T4=$A$28,Q3*$B$28,IF(T4=$A$29,Q3*$B$29))))</f>
+      <c r="S4" s="26">
+        <f>IF(W4=$A$26,S3*$B$26,IF(W4=$A$27,S3*$B$27,IF(W4=$A$28,S3*$B$28,IF(W4=$A$29,S3*$B$29))))</f>
         <v>360</v>
       </c>
-      <c r="R4" s="31">
-        <f t="shared" ref="R4:R20" si="2">IF(T4=$A$31,Q4/$B$31,IF(T4=$A$32,Q4/$B$32,IF(T4=$A$33,Q4/$B$33,IF(T4=$A$34,Q4/$B$34))))</f>
+      <c r="T4" s="26">
+        <f t="shared" ref="T4:T20" si="4">S4/3</f>
+        <v>120</v>
+      </c>
+      <c r="U4" s="31">
+        <f t="shared" ref="U4:U20" si="5">IF(W4=$A$31,S4/$B$31,IF(W4=$A$32,S4/$B$32,IF(W4=$A$33,S4/$B$33,IF(W4=$A$34,S4/$B$34))))</f>
         <v>60</v>
       </c>
-      <c r="S4" s="12">
-        <f>S3+S3</f>
+      <c r="V4" s="12">
+        <f>V3+V3</f>
         <v>10</v>
       </c>
-      <c r="T4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" s="15">
+      <c r="W4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="15">
         <v>92</v>
       </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="17"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="17"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -1790,71 +1852,84 @@
         <v>11</v>
       </c>
       <c r="C5" s="36">
-        <f t="shared" ref="C5:C20" si="3">IF(F5=$A$26,C4*$B$26,IF(F5=$A$27,C4*$B$27,IF(F5=$A$28,C4*$B$28,IF(F5=$A$29,C4*$B$29))))</f>
+        <f t="shared" ref="C5:C20" si="6">IF(G5=$A$26,C4*$B$26,IF(G5=$A$27,C4*$B$27,IF(G5=$A$28,C4*$B$28,IF(G5=$A$29,C4*$B$29))))</f>
         <v>60</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="37">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E5" s="38">
-        <f>E4+E4</f>
+      <c r="F5" s="38">
+        <f>F4+F4</f>
         <v>12</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>32</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="27">
-        <f t="shared" ref="J5:J20" si="4">IF(M5=$A$26,J4*$B$26,IF(M5=$A$27,J4*$B$27,IF(M5=$A$28,J4*$B$28,IF(M5=$A$29,J4*$B$29))))</f>
+      <c r="K5" s="27">
+        <f t="shared" ref="K5:K20" si="7">IF(O5=$A$26,K4*$B$26,IF(O5=$A$27,K4*$B$27,IF(O5=$A$28,K4*$B$28,IF(O5=$A$29,K4*$B$29))))</f>
         <v>600</v>
       </c>
-      <c r="K5" s="30">
-        <f t="shared" si="1"/>
+      <c r="L5" s="27">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="M5" s="30">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L5" s="8">
-        <f>L4+L4</f>
+      <c r="N5" s="8">
+        <f>N4+N4</f>
         <v>18</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="10">
+      <c r="O5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="10">
         <v>63</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="26">
-        <f t="shared" ref="Q5:Q20" si="5">IF(T5=$A$26,Q4*$B$26,IF(T5=$A$27,Q4*$B$27,IF(T5=$A$28,Q4*$B$28,IF(T5=$A$29,Q4*$B$29))))</f>
+      <c r="S5" s="26">
+        <f t="shared" ref="S5:S20" si="8">IF(W5=$A$26,S4*$B$26,IF(W5=$A$27,S4*$B$27,IF(W5=$A$28,S4*$B$28,IF(W5=$A$29,S4*$B$29))))</f>
         <v>720</v>
       </c>
-      <c r="R5" s="31">
-        <f t="shared" si="2"/>
+      <c r="T5" s="26">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="U5" s="31">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="S5" s="12">
-        <f>S4+S4</f>
+      <c r="V5" s="12">
+        <f>V4+V4</f>
         <v>20</v>
       </c>
-      <c r="T5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="15">
+      <c r="W5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="15">
         <v>93</v>
       </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="17"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="17"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>4</v>
       </c>
@@ -1862,1105 +1937,1304 @@
         <v>14</v>
       </c>
       <c r="C6" s="36">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="D6" s="36">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E6" s="37">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F6" s="38">
+        <f>F5+F5</f>
+        <v>24</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="6">
+        <v>33</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="27">
+        <f t="shared" si="7"/>
+        <v>1200</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="M6" s="30">
         <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="N6" s="8">
+        <f>N5+N5</f>
+        <v>36</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>64</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="26">
+        <f t="shared" si="8"/>
+        <v>1440</v>
+      </c>
+      <c r="T6" s="26">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="U6" s="31">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="V6" s="12">
+        <f>V5+V5</f>
+        <v>40</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>94</v>
+      </c>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="17"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
+        <v>5</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="36">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
+      <c r="D7" s="36">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E7" s="37">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F7" s="38">
+        <f>F6+60</f>
+        <v>84</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="6">
+        <v>34</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="7"/>
+        <v>3600</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="M7" s="30">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="N7" s="8">
+        <f>N6+N6</f>
+        <v>72</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>65</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="26">
+        <f t="shared" si="8"/>
+        <v>2880</v>
+      </c>
+      <c r="T7" s="26">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+      <c r="U7" s="31">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="V7" s="12">
+        <f>V6+V6</f>
+        <v>80</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="17"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="36">
+        <f t="shared" si="6"/>
+        <v>1080</v>
+      </c>
+      <c r="D8" s="36">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="E8" s="37">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="D6" s="37">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E6" s="38">
-        <f>E5+E5</f>
-        <v>24</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="F8" s="38">
+        <f>F7+F7</f>
+        <v>168</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="6">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="27">
+      <c r="I8" s="6">
+        <v>35</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="7"/>
+        <v>10800</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="M8" s="30">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="N8" s="8">
+        <v>140</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>66</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="26">
+        <f t="shared" si="8"/>
+        <v>8640</v>
+      </c>
+      <c r="T8" s="26">
         <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="K6" s="30">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="L6" s="8">
-        <f>L5+L5</f>
-        <v>36</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="10">
-        <v>64</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="26">
+        <v>2880</v>
+      </c>
+      <c r="U8" s="31">
         <f t="shared" si="5"/>
         <v>1440</v>
       </c>
-      <c r="R6" s="31">
+      <c r="V8" s="12">
+        <f>V7+V7</f>
+        <v>160</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>96</v>
+      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="17"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
+        <v>7</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="36">
+        <f t="shared" si="6"/>
+        <v>2160</v>
+      </c>
+      <c r="D9" s="36">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="E9" s="37">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="F9" s="39">
+        <f>F8+F8</f>
+        <v>336</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="6">
+        <v>36</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="7"/>
+        <v>21600</v>
+      </c>
+      <c r="L9" s="27">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="S6" s="12">
-        <f>S5+S5</f>
-        <v>40</v>
-      </c>
-      <c r="T6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" s="15">
-        <v>94</v>
-      </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="17"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
-        <v>5</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="36">
+        <v>7200</v>
+      </c>
+      <c r="M9" s="30">
         <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="D7" s="37">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E7" s="38">
-        <f>E6+60</f>
-        <v>84</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="6">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="27">
+        <v>3600</v>
+      </c>
+      <c r="N9" s="8">
+        <f>N8+60</f>
+        <v>200</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>67</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="26">
+        <f t="shared" si="8"/>
+        <v>17280</v>
+      </c>
+      <c r="T9" s="26">
         <f t="shared" si="4"/>
-        <v>3600</v>
-      </c>
-      <c r="K7" s="30">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="L7" s="8">
-        <f>L6+L6</f>
-        <v>72</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="10">
-        <v>65</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="26">
+        <v>5760</v>
+      </c>
+      <c r="U9" s="31">
         <f t="shared" si="5"/>
         <v>2880</v>
       </c>
-      <c r="R7" s="31">
+      <c r="V9" s="13">
+        <f>V5+V5</f>
+        <v>40</v>
+      </c>
+      <c r="W9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>97</v>
+      </c>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="19"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <v>8</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="36">
+        <f t="shared" si="6"/>
+        <v>4320</v>
+      </c>
+      <c r="D10" s="36">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="E10" s="37">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="F10" s="39">
+        <f>F9+60</f>
+        <v>396</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="6">
+        <v>37</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="27">
+        <f t="shared" si="7"/>
+        <v>64800</v>
+      </c>
+      <c r="L10" s="27">
         <f t="shared" si="2"/>
-        <v>480</v>
-      </c>
-      <c r="S7" s="12">
-        <f>S6+S6</f>
-        <v>80</v>
-      </c>
-      <c r="T7" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="V7" s="15">
-        <v>95</v>
-      </c>
-      <c r="W7" s="16"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="17"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>6</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="36">
+        <v>21600</v>
+      </c>
+      <c r="M10" s="30">
         <f t="shared" si="3"/>
-        <v>1080</v>
-      </c>
-      <c r="D8" s="37">
+        <v>10800</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" ref="N10:N20" si="9">N9+60</f>
+        <v>260</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>68</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="26">
+        <f t="shared" si="8"/>
+        <v>34560</v>
+      </c>
+      <c r="T10" s="26">
+        <f t="shared" si="4"/>
+        <v>11520</v>
+      </c>
+      <c r="U10" s="31">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="V10" s="13">
+        <f>V8+V8</f>
+        <v>320</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>98</v>
+      </c>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="19"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
+        <v>9</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="36">
+        <f t="shared" si="6"/>
+        <v>12960</v>
+      </c>
+      <c r="D11" s="36">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="E8" s="38">
-        <f>E7+E7</f>
-        <v>168</v>
-      </c>
-      <c r="F8" s="23" t="s">
+        <v>4320</v>
+      </c>
+      <c r="E11" s="37">
+        <f t="shared" si="1"/>
+        <v>2160</v>
+      </c>
+      <c r="F11" s="39">
+        <f t="shared" ref="F11:F20" si="10">F10+60</f>
+        <v>456</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="6">
-        <v>35</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="27">
+      <c r="I11" s="6">
+        <v>38</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="27">
+        <f t="shared" si="7"/>
+        <v>194400</v>
+      </c>
+      <c r="L11" s="27">
+        <f t="shared" si="2"/>
+        <v>64800</v>
+      </c>
+      <c r="M11" s="30">
+        <f t="shared" si="3"/>
+        <v>32400</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="9"/>
+        <v>320</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>69</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="26">
+        <f t="shared" si="8"/>
+        <v>103680</v>
+      </c>
+      <c r="T11" s="26">
         <f t="shared" si="4"/>
-        <v>10800</v>
-      </c>
-      <c r="K8" s="30">
-        <f t="shared" si="1"/>
-        <v>1800</v>
-      </c>
-      <c r="L8" s="8">
-        <v>140</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="10">
-        <v>66</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="26">
-        <f t="shared" si="5"/>
-        <v>8640</v>
-      </c>
-      <c r="R8" s="31">
-        <f t="shared" si="2"/>
-        <v>1440</v>
-      </c>
-      <c r="S8" s="12">
-        <f>S7+S7</f>
-        <v>160</v>
-      </c>
-      <c r="T8" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" s="15">
-        <v>96</v>
-      </c>
-      <c r="W8" s="16"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="17"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
-        <v>7</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="36">
-        <f t="shared" si="3"/>
-        <v>2160</v>
-      </c>
-      <c r="D9" s="37">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="E9" s="39">
-        <f>E8+E8</f>
-        <v>336</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="6">
-        <v>36</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="27">
-        <f t="shared" si="4"/>
-        <v>21600</v>
-      </c>
-      <c r="K9" s="30">
-        <f t="shared" si="1"/>
-        <v>3600</v>
-      </c>
-      <c r="L9" s="8">
-        <f>L8+60</f>
-        <v>200</v>
-      </c>
-      <c r="M9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="10">
-        <v>67</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="26">
+        <v>34560</v>
+      </c>
+      <c r="U11" s="31">
         <f t="shared" si="5"/>
         <v>17280</v>
       </c>
-      <c r="R9" s="31">
+      <c r="V11" s="13">
+        <f>V10+60</f>
+        <v>380</v>
+      </c>
+      <c r="W11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>99</v>
+      </c>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="19"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <v>10</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="36">
+        <f t="shared" si="6"/>
+        <v>38880</v>
+      </c>
+      <c r="D12" s="36">
+        <f t="shared" si="0"/>
+        <v>12960</v>
+      </c>
+      <c r="E12" s="37">
+        <f t="shared" si="1"/>
+        <v>6480</v>
+      </c>
+      <c r="F12" s="39">
+        <f t="shared" si="10"/>
+        <v>516</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="6">
+        <v>39</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="27">
+        <f t="shared" si="7"/>
+        <v>388800</v>
+      </c>
+      <c r="L12" s="27">
         <f t="shared" si="2"/>
-        <v>2880</v>
-      </c>
-      <c r="S9" s="13">
-        <f>S5+S5</f>
-        <v>40</v>
-      </c>
-      <c r="T9" t="s">
-        <v>54</v>
-      </c>
-      <c r="V9" s="15">
-        <v>97</v>
-      </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="19"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
-        <v>8</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="36">
+        <v>129600</v>
+      </c>
+      <c r="M12" s="30">
         <f t="shared" si="3"/>
-        <v>4320</v>
-      </c>
-      <c r="D10" s="37">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="E10" s="39">
-        <f>E9+60</f>
-        <v>396</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="6">
-        <v>37</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="27">
+        <v>64800</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="9"/>
+        <v>380</v>
+      </c>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>70</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="26">
+        <f t="shared" si="8"/>
+        <v>207360</v>
+      </c>
+      <c r="T12" s="26">
         <f t="shared" si="4"/>
-        <v>64800</v>
-      </c>
-      <c r="K10" s="30">
-        <f t="shared" si="1"/>
-        <v>10800</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" ref="L10:L20" si="6">L9+60</f>
-        <v>260</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="10">
-        <v>68</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="26">
+        <v>69120</v>
+      </c>
+      <c r="U12" s="31">
         <f t="shared" si="5"/>
         <v>34560</v>
       </c>
-      <c r="R10" s="31">
+      <c r="V12" s="13">
+        <f t="shared" ref="V12:V21" si="11">V11+60</f>
+        <v>440</v>
+      </c>
+      <c r="W12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="19"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <v>11</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="36">
+        <f t="shared" si="6"/>
+        <v>194400</v>
+      </c>
+      <c r="D13" s="36">
+        <f t="shared" si="0"/>
+        <v>64800</v>
+      </c>
+      <c r="E13" s="37">
+        <f t="shared" si="1"/>
+        <v>38880</v>
+      </c>
+      <c r="F13" s="39">
+        <f t="shared" si="10"/>
+        <v>576</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="6">
+        <v>40</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="27">
+        <f t="shared" si="7"/>
+        <v>777600</v>
+      </c>
+      <c r="L13" s="27">
         <f t="shared" si="2"/>
-        <v>5760</v>
-      </c>
-      <c r="S10" s="13">
-        <f>S8+S8</f>
-        <v>320</v>
-      </c>
-      <c r="T10" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" s="15">
-        <v>98</v>
-      </c>
-      <c r="W10" s="15"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="19"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
-        <v>9</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="36">
-        <f t="shared" si="3"/>
-        <v>12960</v>
-      </c>
-      <c r="D11" s="37">
+        <v>259200</v>
+      </c>
+      <c r="M13" s="30">
+        <f>IF(O13=$A$31,K13/$B$31,IF(O13=$A$32,K13/$B$32,IF(O13=$A$33,K13/$B$33,IF(O13=$A$34,K13/$B$34))))</f>
+        <v>129600</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="9"/>
+        <v>440</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>71</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="26">
+        <f t="shared" si="8"/>
+        <v>1036800</v>
+      </c>
+      <c r="T13" s="26">
+        <f t="shared" si="4"/>
+        <v>345600</v>
+      </c>
+      <c r="U13" s="31">
+        <f t="shared" si="5"/>
+        <v>207360</v>
+      </c>
+      <c r="V13" s="13">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="W13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>101</v>
+      </c>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="19"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
+        <v>12</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="36">
+        <f t="shared" si="6"/>
+        <v>388800</v>
+      </c>
+      <c r="D14" s="36">
         <f t="shared" si="0"/>
-        <v>2160</v>
-      </c>
-      <c r="E11" s="39">
-        <f t="shared" ref="E11:E20" si="7">E10+60</f>
-        <v>456</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="6">
-        <v>38</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="27">
-        <f t="shared" si="4"/>
-        <v>194400</v>
-      </c>
-      <c r="K11" s="30">
-        <f t="shared" si="1"/>
-        <v>32400</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" si="6"/>
-        <v>320</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="10">
-        <v>69</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="26">
-        <f t="shared" si="5"/>
-        <v>103680</v>
-      </c>
-      <c r="R11" s="31">
-        <f t="shared" si="2"/>
-        <v>17280</v>
-      </c>
-      <c r="S11" s="13">
-        <f>S10+60</f>
-        <v>380</v>
-      </c>
-      <c r="T11" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V11" s="15">
-        <v>99</v>
-      </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="19"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
-        <v>10</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="36">
-        <f t="shared" si="3"/>
-        <v>38880</v>
-      </c>
-      <c r="D12" s="37">
-        <f t="shared" si="0"/>
-        <v>6480</v>
-      </c>
-      <c r="E12" s="39">
-        <f t="shared" si="7"/>
-        <v>516</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="6">
-        <v>39</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="27">
-        <f t="shared" si="4"/>
-        <v>388800</v>
-      </c>
-      <c r="K12" s="30">
+        <v>129600</v>
+      </c>
+      <c r="E14" s="37">
         <f t="shared" si="1"/>
         <v>64800</v>
       </c>
-      <c r="L12" s="8">
+      <c r="F14" s="39">
+        <f t="shared" si="10"/>
+        <v>636</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="6">
+        <v>41</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="27">
+        <f t="shared" si="7"/>
+        <v>1555200</v>
+      </c>
+      <c r="L14" s="27">
+        <f t="shared" si="2"/>
+        <v>518400</v>
+      </c>
+      <c r="M14" s="30">
+        <f t="shared" si="3"/>
+        <v>259200</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>72</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="26">
+        <f t="shared" si="8"/>
+        <v>2073600</v>
+      </c>
+      <c r="T14" s="26">
+        <f t="shared" si="4"/>
+        <v>691200</v>
+      </c>
+      <c r="U14" s="31">
+        <f t="shared" si="5"/>
+        <v>345600</v>
+      </c>
+      <c r="V14" s="13">
+        <f t="shared" si="11"/>
+        <v>560</v>
+      </c>
+      <c r="W14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>102</v>
+      </c>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="19"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
+        <v>13</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="36">
         <f t="shared" si="6"/>
-        <v>380</v>
-      </c>
-      <c r="M12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="10">
-        <v>70</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" s="26">
+        <v>777600</v>
+      </c>
+      <c r="D15" s="36">
+        <f t="shared" si="0"/>
+        <v>259200</v>
+      </c>
+      <c r="E15" s="37">
+        <f t="shared" si="1"/>
+        <v>129600</v>
+      </c>
+      <c r="F15" s="39">
+        <f t="shared" si="10"/>
+        <v>696</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="6">
+        <v>42</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="27">
+        <f t="shared" si="7"/>
+        <v>3110400</v>
+      </c>
+      <c r="L15" s="27">
+        <f t="shared" si="2"/>
+        <v>1036800</v>
+      </c>
+      <c r="M15" s="30">
+        <f t="shared" si="3"/>
+        <v>518400</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="9"/>
+        <v>560</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>73</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15" s="26">
+        <f t="shared" si="8"/>
+        <v>14515200</v>
+      </c>
+      <c r="T15" s="26">
+        <f t="shared" si="4"/>
+        <v>4838400</v>
+      </c>
+      <c r="U15" s="31">
         <f t="shared" si="5"/>
-        <v>207360</v>
-      </c>
-      <c r="R12" s="31">
-        <f t="shared" si="2"/>
-        <v>34560</v>
-      </c>
-      <c r="S12" s="13">
-        <f t="shared" ref="S12:S21" si="8">S11+60</f>
-        <v>440</v>
-      </c>
-      <c r="T12" t="s">
-        <v>54</v>
-      </c>
-      <c r="V12" s="15">
-        <v>100</v>
-      </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="19"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
-        <v>11</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="36">
-        <f t="shared" si="3"/>
-        <v>194400</v>
-      </c>
-      <c r="D13" s="37">
+        <v>3628800</v>
+      </c>
+      <c r="V15" s="13">
+        <f t="shared" si="11"/>
+        <v>620</v>
+      </c>
+      <c r="W15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>103</v>
+      </c>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="19"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <v>14</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="36">
+        <f t="shared" si="6"/>
+        <v>1555200</v>
+      </c>
+      <c r="D16" s="36">
         <f t="shared" si="0"/>
-        <v>38880</v>
-      </c>
-      <c r="E13" s="39">
-        <f t="shared" si="7"/>
-        <v>576</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="6">
-        <v>40</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="27">
-        <f t="shared" si="4"/>
-        <v>777600</v>
-      </c>
-      <c r="K13" s="30">
-        <f>IF(M13=$A$31,J13/$B$31,IF(M13=$A$32,J13/$B$32,IF(M13=$A$33,J13/$B$33,IF(M13=$A$34,J13/$B$34))))</f>
-        <v>129600</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" si="6"/>
-        <v>440</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="10">
-        <v>71</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="26">
-        <f t="shared" si="5"/>
-        <v>1036800</v>
-      </c>
-      <c r="R13" s="31">
-        <f t="shared" si="2"/>
-        <v>207360</v>
-      </c>
-      <c r="S13" s="13">
-        <f t="shared" si="8"/>
-        <v>500</v>
-      </c>
-      <c r="T13" t="s">
-        <v>56</v>
-      </c>
-      <c r="V13" s="15">
-        <v>101</v>
-      </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="19"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
-        <v>12</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="36">
-        <f t="shared" si="3"/>
-        <v>388800</v>
-      </c>
-      <c r="D14" s="37">
-        <f t="shared" si="0"/>
-        <v>64800</v>
-      </c>
-      <c r="E14" s="39">
-        <f t="shared" si="7"/>
-        <v>636</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="6">
-        <v>41</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="27">
-        <f t="shared" si="4"/>
-        <v>1555200</v>
-      </c>
-      <c r="K14" s="30">
+        <v>518400</v>
+      </c>
+      <c r="E16" s="37">
         <f t="shared" si="1"/>
         <v>259200</v>
       </c>
-      <c r="L14" s="8">
+      <c r="F16" s="39">
+        <f t="shared" si="10"/>
+        <v>756</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="6">
+        <v>43</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="27">
+        <f t="shared" si="7"/>
+        <v>6220800</v>
+      </c>
+      <c r="L16" s="27">
+        <f t="shared" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="M16" s="30">
+        <f t="shared" si="3"/>
+        <v>1036800</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="9"/>
+        <v>620</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>74</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" s="26">
+        <f t="shared" si="8"/>
+        <v>101606400</v>
+      </c>
+      <c r="T16" s="26">
+        <f t="shared" si="4"/>
+        <v>33868800</v>
+      </c>
+      <c r="U16" s="31">
+        <f t="shared" si="5"/>
+        <v>25401600</v>
+      </c>
+      <c r="V16" s="13">
+        <f t="shared" si="11"/>
+        <v>680</v>
+      </c>
+      <c r="W16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>104</v>
+      </c>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="19"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
+        <v>15</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="36">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" s="10">
-        <v>72</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="26">
-        <f t="shared" si="5"/>
-        <v>2073600</v>
-      </c>
-      <c r="R14" s="31">
-        <f t="shared" si="2"/>
-        <v>345600</v>
-      </c>
-      <c r="S14" s="13">
-        <f t="shared" si="8"/>
-        <v>560</v>
-      </c>
-      <c r="T14" t="s">
-        <v>54</v>
-      </c>
-      <c r="V14" s="15">
-        <v>102</v>
-      </c>
-      <c r="W14" s="15"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="19"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
-        <v>13</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="36">
-        <f t="shared" si="3"/>
-        <v>777600</v>
-      </c>
-      <c r="D15" s="37">
+        <v>3110400</v>
+      </c>
+      <c r="D17" s="36">
         <f t="shared" si="0"/>
-        <v>129600</v>
-      </c>
-      <c r="E15" s="39">
-        <f t="shared" si="7"/>
-        <v>696</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="6">
-        <v>42</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="27">
-        <f t="shared" si="4"/>
-        <v>3110400</v>
-      </c>
-      <c r="K15" s="30">
+        <v>1036800</v>
+      </c>
+      <c r="E17" s="37">
         <f t="shared" si="1"/>
         <v>518400</v>
       </c>
-      <c r="L15" s="8">
+      <c r="F17" s="39">
+        <f t="shared" si="10"/>
+        <v>816</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="6">
+        <v>44</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="27">
+        <f t="shared" si="7"/>
+        <v>12441600</v>
+      </c>
+      <c r="L17" s="27">
+        <f t="shared" si="2"/>
+        <v>4147200</v>
+      </c>
+      <c r="M17" s="30">
+        <f t="shared" si="3"/>
+        <v>2073600</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="9"/>
+        <v>680</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>75</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" s="26">
+        <f t="shared" si="8"/>
+        <v>203212800</v>
+      </c>
+      <c r="T17" s="26">
+        <f t="shared" si="4"/>
+        <v>67737600</v>
+      </c>
+      <c r="U17" s="31">
+        <f t="shared" si="5"/>
+        <v>33868800</v>
+      </c>
+      <c r="V17" s="13">
+        <f t="shared" si="11"/>
+        <v>740</v>
+      </c>
+      <c r="W17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>105</v>
+      </c>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="19"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
+        <v>16</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="36">
         <f t="shared" si="6"/>
-        <v>560</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O15" s="10">
-        <v>73</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="26">
-        <f t="shared" si="5"/>
-        <v>14515200</v>
-      </c>
-      <c r="R15" s="31">
-        <f t="shared" si="2"/>
-        <v>3628800</v>
-      </c>
-      <c r="S15" s="13">
-        <f t="shared" si="8"/>
-        <v>620</v>
-      </c>
-      <c r="T15" t="s">
-        <v>57</v>
-      </c>
-      <c r="V15" s="15">
-        <v>103</v>
-      </c>
-      <c r="W15" s="15"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="19"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
-        <v>14</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="36">
-        <f t="shared" si="3"/>
-        <v>1555200</v>
-      </c>
-      <c r="D16" s="37">
+        <v>6220800</v>
+      </c>
+      <c r="D18" s="36">
         <f t="shared" si="0"/>
-        <v>259200</v>
-      </c>
-      <c r="E16" s="39">
-        <f t="shared" si="7"/>
-        <v>756</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="6">
-        <v>43</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="27">
-        <f t="shared" si="4"/>
-        <v>6220800</v>
-      </c>
-      <c r="K16" s="30">
+        <v>2073600</v>
+      </c>
+      <c r="E18" s="37">
         <f t="shared" si="1"/>
         <v>1036800</v>
       </c>
-      <c r="L16" s="8">
+      <c r="F18" s="39">
+        <f t="shared" si="10"/>
+        <v>876</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="6">
+        <v>45</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="27">
+        <f t="shared" si="7"/>
+        <v>24883200</v>
+      </c>
+      <c r="L18" s="27">
+        <f t="shared" si="2"/>
+        <v>8294400</v>
+      </c>
+      <c r="M18" s="30">
+        <f t="shared" si="3"/>
+        <v>4147200</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="9"/>
+        <v>740</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>76</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S18" s="26">
+        <f t="shared" si="8"/>
+        <v>1016064000</v>
+      </c>
+      <c r="T18" s="26">
+        <f t="shared" si="4"/>
+        <v>338688000</v>
+      </c>
+      <c r="U18" s="31">
+        <f t="shared" si="5"/>
+        <v>203212800</v>
+      </c>
+      <c r="V18" s="13">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
+      <c r="W18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>106</v>
+      </c>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="19"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>17</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="36">
         <f t="shared" si="6"/>
-        <v>620</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O16" s="10">
-        <v>74</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="26">
-        <f t="shared" si="5"/>
-        <v>101606400</v>
-      </c>
-      <c r="R16" s="31">
-        <f t="shared" si="2"/>
-        <v>25401600</v>
-      </c>
-      <c r="S16" s="13">
-        <f t="shared" si="8"/>
-        <v>680</v>
-      </c>
-      <c r="T16" t="s">
-        <v>57</v>
-      </c>
-      <c r="V16" s="15">
-        <v>104</v>
-      </c>
-      <c r="W16" s="15"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
-        <v>15</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="36">
-        <f t="shared" si="3"/>
-        <v>3110400</v>
-      </c>
-      <c r="D17" s="37">
+        <v>12441600</v>
+      </c>
+      <c r="D19" s="36">
         <f t="shared" si="0"/>
-        <v>518400</v>
-      </c>
-      <c r="E17" s="39">
-        <f t="shared" si="7"/>
-        <v>816</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="6">
-        <v>44</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="27">
-        <f t="shared" si="4"/>
-        <v>12441600</v>
-      </c>
-      <c r="K17" s="30">
+        <v>4147200</v>
+      </c>
+      <c r="E19" s="37">
         <f t="shared" si="1"/>
         <v>2073600</v>
       </c>
-      <c r="L17" s="8">
+      <c r="F19" s="39">
+        <f t="shared" si="10"/>
+        <v>936</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="6">
+        <v>46</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="27">
+        <f t="shared" si="7"/>
+        <v>49766400</v>
+      </c>
+      <c r="L19" s="27">
+        <f t="shared" si="2"/>
+        <v>16588800</v>
+      </c>
+      <c r="M19" s="30">
+        <f t="shared" si="3"/>
+        <v>8294400</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="9"/>
+        <v>800</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>77</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" s="26">
+        <f t="shared" si="8"/>
+        <v>2032128000</v>
+      </c>
+      <c r="T19" s="26">
+        <f t="shared" si="4"/>
+        <v>677376000</v>
+      </c>
+      <c r="U19" s="31">
+        <f t="shared" si="5"/>
+        <v>338688000</v>
+      </c>
+      <c r="V19" s="13">
+        <f t="shared" si="11"/>
+        <v>860</v>
+      </c>
+      <c r="W19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>107</v>
+      </c>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="19"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
+        <v>18</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="36">
         <f t="shared" si="6"/>
-        <v>680</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O17" s="10">
-        <v>75</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="26">
-        <f t="shared" si="5"/>
-        <v>203212800</v>
-      </c>
-      <c r="R17" s="31">
-        <f t="shared" si="2"/>
-        <v>33868800</v>
-      </c>
-      <c r="S17" s="13">
-        <f t="shared" si="8"/>
-        <v>740</v>
-      </c>
-      <c r="T17" t="s">
-        <v>54</v>
-      </c>
-      <c r="V17" s="15">
-        <v>105</v>
-      </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="19"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
-        <v>16</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="36">
-        <f t="shared" si="3"/>
-        <v>6220800</v>
-      </c>
-      <c r="D18" s="37">
+        <v>24883200</v>
+      </c>
+      <c r="D20" s="36">
         <f t="shared" si="0"/>
-        <v>1036800</v>
-      </c>
-      <c r="E18" s="39">
-        <f t="shared" si="7"/>
-        <v>876</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="6">
-        <v>45</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="27">
-        <f t="shared" si="4"/>
-        <v>24883200</v>
-      </c>
-      <c r="K18" s="30">
+        <v>8294400</v>
+      </c>
+      <c r="E20" s="37">
         <f t="shared" si="1"/>
         <v>4147200</v>
       </c>
-      <c r="L18" s="8">
-        <f t="shared" si="6"/>
-        <v>740</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="10">
-        <v>76</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q18" s="26">
+      <c r="F20" s="39">
+        <f t="shared" si="10"/>
+        <v>996</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="6">
+        <v>47</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="27">
+        <f t="shared" si="7"/>
+        <v>99532800</v>
+      </c>
+      <c r="L20" s="27">
+        <f t="shared" si="2"/>
+        <v>33177600</v>
+      </c>
+      <c r="M20" s="30">
+        <f t="shared" si="3"/>
+        <v>16588800</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="9"/>
+        <v>860</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>78</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S20" s="26">
+        <f t="shared" si="8"/>
+        <v>14224896000</v>
+      </c>
+      <c r="T20" s="26">
+        <f t="shared" si="4"/>
+        <v>4741632000</v>
+      </c>
+      <c r="U20" s="31">
         <f t="shared" si="5"/>
-        <v>1016064000</v>
-      </c>
-      <c r="R18" s="31">
-        <f t="shared" si="2"/>
-        <v>203212800</v>
-      </c>
-      <c r="S18" s="13">
-        <f t="shared" si="8"/>
-        <v>800</v>
-      </c>
-      <c r="T18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V18" s="15">
-        <v>106</v>
-      </c>
-      <c r="W18" s="15"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="19"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
-        <v>17</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="36">
-        <f t="shared" si="3"/>
-        <v>12441600</v>
-      </c>
-      <c r="D19" s="37">
-        <f t="shared" si="0"/>
-        <v>2073600</v>
-      </c>
-      <c r="E19" s="39">
-        <f t="shared" si="7"/>
-        <v>936</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="6">
-        <v>46</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="27">
-        <f t="shared" si="4"/>
-        <v>49766400</v>
-      </c>
-      <c r="K19" s="30">
-        <f t="shared" si="1"/>
-        <v>8294400</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" si="6"/>
-        <v>800</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O19" s="10">
-        <v>77</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="26">
-        <f t="shared" si="5"/>
-        <v>2032128000</v>
-      </c>
-      <c r="R19" s="31">
-        <f t="shared" si="2"/>
-        <v>338688000</v>
-      </c>
-      <c r="S19" s="13">
-        <f t="shared" si="8"/>
-        <v>860</v>
-      </c>
-      <c r="T19" t="s">
-        <v>54</v>
-      </c>
-      <c r="V19" s="15">
-        <v>107</v>
-      </c>
-      <c r="W19" s="15"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="19"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
-        <v>18</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="36">
-        <f t="shared" si="3"/>
-        <v>24883200</v>
-      </c>
-      <c r="D20" s="37">
-        <f t="shared" si="0"/>
-        <v>4147200</v>
-      </c>
-      <c r="E20" s="39">
-        <f t="shared" si="7"/>
-        <v>996</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="6">
-        <v>47</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="27">
-        <f t="shared" si="4"/>
-        <v>99532800</v>
-      </c>
-      <c r="K20" s="30">
-        <f t="shared" si="1"/>
-        <v>16588800</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="6"/>
-        <v>860</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O20" s="10">
-        <v>78</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="26">
-        <f t="shared" si="5"/>
-        <v>14224896000</v>
-      </c>
-      <c r="R20" s="31">
-        <f t="shared" si="2"/>
         <v>3556224000</v>
       </c>
-      <c r="S20" s="13">
-        <f t="shared" si="8"/>
+      <c r="V20" s="13">
+        <f t="shared" si="11"/>
         <v>920</v>
       </c>
-      <c r="T20" t="s">
+      <c r="W20" t="s">
         <v>57</v>
       </c>
-      <c r="V20" s="15">
+      <c r="Y20" s="15">
         <v>108</v>
       </c>
-      <c r="W20" s="15"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="19"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="O21" s="41">
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="19"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q21" s="41">
         <v>79</v>
       </c>
-      <c r="P21" s="41" t="s">
+      <c r="R21" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="Q21" s="26">
-        <f t="shared" ref="Q21" si="9">IF(T21=$A$26,Q20*$B$26,IF(T21=$A$27,Q20*$B$27,IF(T21=$A$28,Q20*$B$28,IF(T21=$A$29,Q20*$B$29))))</f>
+      <c r="S21" s="26">
+        <f t="shared" ref="S21" si="12">IF(W21=$A$26,S20*$B$26,IF(W21=$A$27,S20*$B$27,IF(W21=$A$28,S20*$B$28,IF(W21=$A$29,S20*$B$29))))</f>
         <v>99574272000</v>
       </c>
-      <c r="R21" s="31">
-        <f t="shared" ref="R21" si="10">IF(T21=$A$31,Q21/$B$31,IF(T21=$A$32,Q21/$B$32,IF(T21=$A$33,Q21/$B$33,IF(T21=$A$34,Q21/$B$34))))</f>
+      <c r="T21" s="26">
+        <f>S21/3</f>
+        <v>33191424000</v>
+      </c>
+      <c r="U21" s="31">
+        <f t="shared" ref="U21" si="13">IF(W21=$A$31,S21/$B$31,IF(W21=$A$32,S21/$B$32,IF(W21=$A$33,S21/$B$33,IF(W21=$A$34,S21/$B$34))))</f>
         <v>24893568000</v>
       </c>
-      <c r="S21" s="13">
-        <f t="shared" si="8"/>
+      <c r="V21" s="13">
+        <f t="shared" si="11"/>
         <v>980</v>
       </c>
-      <c r="T21" t="s">
+      <c r="W21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E22" s="25">
-        <f>E20/60</f>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="F22" s="25">
+        <f>F20/60</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="L22" s="24">
-        <f>L20/60</f>
+      <c r="N22" s="24">
+        <f>N20/60</f>
         <v>14.333333333333334</v>
       </c>
-      <c r="S22" s="40">
-        <f>S21/60</f>
+      <c r="V22" s="40">
+        <f>V21/60</f>
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="48"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>59</v>
       </c>
@@ -2968,7 +3242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>54</v>
       </c>
@@ -2976,7 +3250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>55</v>
       </c>
@@ -2984,7 +3258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>56</v>
       </c>
@@ -2992,7 +3266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3000,13 +3274,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="43"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>54</v>
       </c>
@@ -3014,7 +3288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>55</v>
       </c>
@@ -3041,52 +3315,52 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="A24:B24"/>
   </mergeCells>
-  <conditionalFormatting sqref="T3:T21">
+  <conditionalFormatting sqref="W3:W21">
     <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Lendário">
-      <formula>NOT(ISERROR(SEARCH("Lendário",T3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Lendário",W3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Epico">
-      <formula>NOT(ISERROR(SEARCH("Epico",T3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Epico",W3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Raro">
-      <formula>NOT(ISERROR(SEARCH("Raro",T3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Raro",W3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="Comum">
-      <formula>NOT(ISERROR(SEARCH("Comum",T3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Comum",W3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M20">
+  <conditionalFormatting sqref="O3:O20">
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Lendário">
-      <formula>NOT(ISERROR(SEARCH("Lendário",M3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Lendário",O3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Epico">
-      <formula>NOT(ISERROR(SEARCH("Epico",M3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Epico",O3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Raro">
-      <formula>NOT(ISERROR(SEARCH("Raro",M3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Raro",O3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Comum">
-      <formula>NOT(ISERROR(SEARCH("Comum",M3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Comum",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="G3:G20">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Lendário">
-      <formula>NOT(ISERROR(SEARCH("Lendário",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Lendário",G3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Epico">
-      <formula>NOT(ISERROR(SEARCH("Epico",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Epico",G3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Raro">
-      <formula>NOT(ISERROR(SEARCH("Raro",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Raro",G3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Comum">
-      <formula>NOT(ISERROR(SEARCH("Comum",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Comum",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
